--- a/Project Wing/Model/Opex.xlsx
+++ b/Project Wing/Model/Opex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC1EE5B-B158-486F-9E33-00A585C6137C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8A3E3F-AA90-4618-902D-241799F278BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>UAV-Based</t>
   </si>
@@ -100,12 +100,18 @@
   <si>
     <t>Zeerust</t>
   </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,7 +1475,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
+              <c:f>Sheet1!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1492,7 +1498,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$19:$N$19</c:f>
+              <c:f>Sheet1!$C$19:$O$19</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1539,7 +1545,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$N$20</c:f>
+              <c:f>Sheet1!$C$20:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2512,6 +2518,770 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9102593816283779E-2"/>
+          <c:y val="3.0786453281799558E-2"/>
+          <c:w val="0.81876548757407164"/>
+          <c:h val="0.68529457181497777"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Charge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$O$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B98-4266-B634-F16AAEE1FF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1918997936"/>
+        <c:axId val="1281885600"/>
+      </c:areaChart>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$O$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1092507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1294722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>679336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>795461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>382086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1271628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>391749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B98-4266-B634-F16AAEE1FF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1111382480"/>
+        <c:axId val="1110437312"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1918997936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Strategy - Scenarios</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1281885600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1281885600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Monthly Subscription Fee [ZAR]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918997936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1110437312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Users</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.98146103197224155"/>
+              <c:y val="0.2855382938632417"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1111382480"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1111382480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1110437312"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2663,6 +3433,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4212,6 +5022,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4862,6 +6175,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>96980</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>486641</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40697</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5605AA-74EB-4FBF-BD92-A11F90045273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5128,15 +6477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD43" sqref="AD43"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AT18" sqref="AT18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -5177,7 +6526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +6573,7 @@
         <v>2552.7750000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>10</v>
@@ -5269,7 +6618,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>14</v>
@@ -5314,7 +6663,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>13</v>
@@ -5359,7 +6708,7 @@
         <v>2532.1953496558967</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>16</v>
@@ -5404,7 +6753,7 @@
         <v>0.36187950910258171</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5451,7 +6800,7 @@
         <v>4006.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>10</v>
@@ -5496,7 +6845,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>14</v>
@@ -5541,7 +6890,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>13</v>
@@ -5586,7 +6935,7 @@
         <v>5141.4393706052469</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>16</v>
@@ -5631,7 +6980,7 @@
         <v>0.26822262267047692</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -5678,7 +7027,7 @@
         <v>440.15000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>10</v>
@@ -5723,7 +7072,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>14</v>
@@ -5768,7 +7117,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>13</v>
@@ -5813,7 +7162,7 @@
         <v>4733.1416737367672</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>16</v>
@@ -5858,89 +7207,218 @@
         <v>2.7108985710346958</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="B19" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>4</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>5</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>21</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>6</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>7</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>8</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>5244033.6000000006</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>6214665.6000000006</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3260812.8000000003</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3818212.8000000003</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1834012.8</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6103814.4000000004</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1880395.2000000002</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>52070.400000000001</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>32734.799999999999</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>263862</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>720</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>840</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1092507</v>
+      </c>
+      <c r="D24">
+        <v>1294722</v>
+      </c>
+      <c r="E24">
+        <v>679336</v>
+      </c>
+      <c r="F24">
+        <v>795461</v>
+      </c>
+      <c r="G24">
+        <v>382086</v>
+      </c>
+      <c r="H24">
+        <v>1271628</v>
+      </c>
+      <c r="I24">
+        <v>391749</v>
+      </c>
+      <c r="J24">
+        <v>14464</v>
+      </c>
+      <c r="K24">
+        <v>9093</v>
+      </c>
+      <c r="L24">
+        <v>73295</v>
+      </c>
+      <c r="M24">
+        <v>3000</v>
+      </c>
+      <c r="N24">
+        <v>3500</v>
+      </c>
+      <c r="O24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>400</v>
+      </c>
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>400</v>
+      </c>
+      <c r="F25">
+        <v>400</v>
+      </c>
+      <c r="G25">
+        <v>400</v>
+      </c>
+      <c r="H25">
+        <v>400</v>
+      </c>
+      <c r="I25">
+        <v>400</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+      <c r="L25">
+        <v>300</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>20</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Project Wing/Model/Opex.xlsx
+++ b/Project Wing/Model/Opex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Exocoetidae\Project Wing\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8A3E3F-AA90-4618-902D-241799F278BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F66C54-7D6C-45D3-AACD-54249D184AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>UAV-Based</t>
   </si>
@@ -106,12 +106,36 @@
   <si>
     <t>Charge</t>
   </si>
+  <si>
+    <t>NPO</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>UAV L</t>
+  </si>
+  <si>
+    <t>LC L</t>
+  </si>
+  <si>
+    <t>Hotspot L</t>
+  </si>
+  <si>
+    <t>Optimal Fee</t>
+  </si>
+  <si>
+    <t>Monthly Subscription Price</t>
+  </si>
+  <si>
+    <t>Pay-For-Usage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +150,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,19 +175,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -196,20 +240,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>UAV-Based</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>IRR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -269,12 +299,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$O$6</c:f>
+              <c:f>Sheet1!$C$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-6.6929857122558389E-2</c:v>
+                  <c:v>-6.6929857122558403E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-8.5523602876574678E-2</c:v>
@@ -316,6 +346,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A2D-4C25-BCF3-DD3F960FFBE5}"/>
             </c:ext>
@@ -324,20 +369,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$11:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LC-Based</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>IRR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -397,7 +428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$O$11</c:f>
+              <c:f>Sheet1!$C$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -444,6 +475,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A2D-4C25-BCF3-DD3F960FFBE5}"/>
             </c:ext>
@@ -452,20 +498,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16:$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Hotspot</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>IRR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -525,7 +557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$O$16</c:f>
+              <c:f>Sheet1!$C$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -572,6 +604,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8A2D-4C25-BCF3-DD3F960FFBE5}"/>
             </c:ext>
@@ -938,7 +985,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8:$B$8</c:f>
+              <c:f>Sheet1!$A$11:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1012,7 +1059,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$O$8</c:f>
+              <c:f>Sheet1!$C$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1070,7 +1117,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$B$13</c:f>
+              <c:f>Sheet1!$A$19:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1146,7 +1193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$O$13</c:f>
+              <c:f>Sheet1!$C$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1473,17 +1520,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="63500" cap="rnd">
               <a:solidFill>
@@ -1498,7 +1534,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$19:$O$19</c:f>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1545,7 +1581,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$O$20</c:f>
+              <c:f>Sheet1!$C$27:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1593,6 +1629,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6A16-444D-8B66-15018A15A6D0}"/>
             </c:ext>
@@ -2021,7 +2072,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10:$B$10</c:f>
+              <c:f>Sheet1!$A$13:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2092,7 +2143,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$O$10</c:f>
+              <c:f>Sheet1!$C$13:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2149,7 +2200,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$B$15</c:f>
+              <c:f>Sheet1!$A$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2220,7 +2271,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$O$15</c:f>
+              <c:f>Sheet1!$C$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2542,7 +2593,7 @@
           <c:x val="9.9102593816283779E-2"/>
           <c:y val="3.0786453281799558E-2"/>
           <c:w val="0.81876548757407164"/>
-          <c:h val="0.68529457181497777"/>
+          <c:h val="0.58121890849124602"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -2551,17 +2602,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Charge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="92D050"/>
@@ -2573,7 +2613,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$23:$O$23</c:f>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -2620,7 +2660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$O$25</c:f>
+              <c:f>Sheet1!$C$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2667,6 +2707,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6B98-4266-B634-F16AAEE1FF49}"/>
             </c:ext>
@@ -2689,17 +2744,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Population</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00B050"/>
@@ -2711,7 +2755,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$23:$O$23</c:f>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -2758,7 +2802,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$O$24</c:f>
+              <c:f>Sheet1!$C$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2805,6 +2849,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6B98-4266-B634-F16AAEE1FF49}"/>
             </c:ext>
@@ -3198,6 +3257,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1110437312"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3267,6 +3327,1251 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7571600160149468E-2"/>
+          <c:y val="7.9746839519168264E-2"/>
+          <c:w val="0.85558565772498774"/>
+          <c:h val="0.70634471609853888"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UAV-Based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6.6929857122558403E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.5523602876574678E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37030964468791783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.29954419830951362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22664479243082902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32973002075111535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3196952576202523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73881828313357034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57995578528210423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1911122348638572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37576258090731463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45090366688612882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36187950910258171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1EC0-44F3-9B4F-2E7C14278F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LC-Based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.70907572509869254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7061673232304515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73244682019246499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69194844608441586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71426034574152264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37274055372767956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.350147889375789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59725072092314102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57892481621616576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2524286545143406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34704852593957747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38353627237534038</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26822262267047692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-1EC0-44F3-9B4F-2E7C14278F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hotspot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-0.12539210056043426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1463128281907895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4057865150599026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.33767506633099342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.27414262097829023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7583470667209768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7511350328774284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5918880777432829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5495565728326508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8960699035483888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6108299066400402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8874019147516958</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7108985710346958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-1EC0-44F3-9B4F-2E7C14278F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1033442576"/>
+        <c:axId val="827844128"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UAV-Based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimal Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>348.37128286823958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>348.53098721907259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>353.62461004337632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351.38853413973567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350.0505812292734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>347.6860389470358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>347.68602782530706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260.39541310147337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260.45947300476308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>260.82925205321249</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.37490116551966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.36675909652017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.374901165519656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1EC0-44F3-9B4F-2E7C14278F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LC-Based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimal Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>309.2965998140433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>309.29662686974171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>309.29680103727839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309.29676594121031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>309.29695452843157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310.23642992176559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310.23636068237744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232.30746434063545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232.35516570648841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232.55366362300776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.491882991124445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.484966829302326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.501565617675411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-1EC0-44F3-9B4F-2E7C14278F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hotspot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimal Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>348.49713971823093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>348.66682836945677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354.07889123687858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351.70302168699993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350.28142344252012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>346.44844127854498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>346.44855430087955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259.82628524020151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260.50266457219431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259.8370293872274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.336904843522067</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.334190820522242</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.329305579122554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-1EC0-44F3-9B4F-2E7C14278F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1002805312"/>
+        <c:axId val="751095184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1002805312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Strategy - Scenarios</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751095184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="751095184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="-50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Monthly Subscription Fee [ZAR]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002805312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="827844128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.5"/>
+          <c:min val="-0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Internal Rate of Returns [Percentage]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1033442576"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1033442576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="827844128"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22268481694025535"/>
+          <c:y val="0.90419166766061543"/>
+          <c:w val="0.60547773477467859"/>
+          <c:h val="7.8836287143391845E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -3473,6 +4778,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6027,20 +7372,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>491490</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>239486</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6067,15 +7915,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>457196</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>110493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>293914</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6105,15 +7953,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6141,15 +7989,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>124691</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>31370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>364177</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6177,15 +8025,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>96980</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>106506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>486641</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>40697</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6206,6 +8054,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E9AFB9-9305-4149-83C9-09A14ED74031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6477,15 +8361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AT18" sqref="AT18"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -6526,7 +8410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6572,8 +8456,14 @@
       <c r="O2">
         <v>2552.7750000000001</v>
       </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>10</v>
@@ -6617,8 +8507,14 @@
       <c r="O3">
         <v>25.5</v>
       </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>14</v>
@@ -6662,8 +8558,14 @@
       <c r="O4">
         <v>1200</v>
       </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>13</v>
@@ -6707,550 +8609,739 @@
       <c r="O5">
         <v>2532.1953496558967</v>
       </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-6.6929857122558389E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-8.5523602876574678E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-0.37030964468791783</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.29954419830951362</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-0.22664479243082902</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.32973002075111535</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.3196952576202523</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.73881828313357034</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.57995578528210423</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.1911122348638572</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.37576258090731463</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.45090366688612882</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.36187950910258171</v>
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <f>($S$3*(C$3/POWER(1+$S$2,$S$3)))</f>
+        <v>984028.22815953474</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:O6" si="0">($S$3*(D$3/POWER(1+$S$2,$S$3)))</f>
+        <v>1258677.1532769953</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2208593.8507904727</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1790312.385115596</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>631223.01512924419</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>755500.13661221182</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>232744.12342492549</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>4056.333700420686</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2810.6879184017353</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>34782</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>7326301.9000000004</v>
+        <f>($S$3*((12*C$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>65550420</v>
       </c>
       <c r="D7">
-        <v>8717395.0500000007</v>
+        <f>($S$3*((12*D$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>77683320</v>
       </c>
       <c r="E7">
-        <v>4412871.9000000004</v>
+        <f>($S$3*((12*E$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>40760160</v>
       </c>
       <c r="F7">
-        <v>5463614.4000000004</v>
+        <f>($S$3*((12*F$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>47727660</v>
       </c>
       <c r="G7">
-        <v>2544001.2000000002</v>
+        <f>($S$3*((12*G$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>22925160</v>
       </c>
       <c r="H7">
-        <v>15451051.75</v>
+        <f>($S$3*((12*H$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>76297680</v>
       </c>
       <c r="I7">
-        <v>5026936.95</v>
+        <f>($S$3*((12*I$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>23504940</v>
       </c>
       <c r="J7">
-        <v>85548.5</v>
+        <f>($S$3*((12*J$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>867840</v>
       </c>
       <c r="K7">
-        <v>55381.3</v>
+        <f>($S$3*((12*K$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>545580</v>
       </c>
       <c r="L7">
-        <v>922876.5</v>
+        <f>($S$3*((12*L$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>4397700</v>
       </c>
       <c r="M7">
-        <v>1948.25</v>
+        <f>($S$3*((12*M$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>180000</v>
       </c>
       <c r="N7">
-        <v>2085.75</v>
+        <f>($S$3*((12*N$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>210000</v>
       </c>
       <c r="O7">
-        <v>4006.5</v>
+        <f>($S$3*((12*O$28)/POWER(1+$S$2,$S$3)))</f>
+        <v>300000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>24583.015621663882</v>
+        <f>((C$5+C$6+C$2)/C$7)*1000</f>
+        <v>348.37128286823958</v>
       </c>
       <c r="D8">
-        <v>29134.995840696589</v>
+        <f t="shared" ref="D8:O8" si="1">((D$5+D$6+D$2)/D$7)*1000</f>
+        <v>348.53098721907259</v>
       </c>
       <c r="E8">
-        <v>15293.260072617541</v>
+        <f t="shared" si="1"/>
+        <v>353.62461004337632</v>
       </c>
       <c r="F8">
-        <v>17906.003820786824</v>
+        <f t="shared" si="1"/>
+        <v>351.38853413973567</v>
       </c>
       <c r="G8">
-        <v>8604.6360773041743</v>
+        <f t="shared" si="1"/>
+        <v>350.0505812292734</v>
       </c>
       <c r="H8">
-        <v>91562.153130288003</v>
+        <f t="shared" si="1"/>
+        <v>347.6860389470358</v>
       </c>
       <c r="I8">
-        <v>28206.020285791954</v>
+        <f t="shared" si="1"/>
+        <v>347.68602782530706</v>
       </c>
       <c r="J8">
-        <v>499.32436076124088</v>
+        <f t="shared" si="1"/>
+        <v>260.39541310147337</v>
       </c>
       <c r="K8">
-        <v>336.75363865292991</v>
+        <f t="shared" si="1"/>
+        <v>260.45947300476308</v>
       </c>
       <c r="L8">
-        <v>3480.75</v>
+        <f t="shared" si="1"/>
+        <v>260.82925205321249</v>
       </c>
       <c r="M8">
-        <v>7.65</v>
+        <f t="shared" si="1"/>
+        <v>17.37490116551966</v>
       </c>
       <c r="N8">
-        <v>7.65</v>
+        <f t="shared" si="1"/>
+        <v>17.36675909652017</v>
       </c>
       <c r="O8">
-        <v>15.3</v>
+        <f t="shared" si="1"/>
+        <v>17.374901165519656</v>
+      </c>
+      <c r="R8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <f>AVERAGE(C8:O8,C16:O16,C24:O24)</f>
+        <v>242.82258180098538</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>5244033.6000000006</v>
-      </c>
-      <c r="D9">
-        <v>6214665.6000000006</v>
-      </c>
-      <c r="E9">
-        <v>3260812.8000000003</v>
-      </c>
-      <c r="F9">
-        <v>3818212.8000000003</v>
-      </c>
-      <c r="G9">
-        <v>1834012.8</v>
-      </c>
-      <c r="H9">
-        <v>6103814.4000000004</v>
-      </c>
-      <c r="I9">
-        <v>1880395.2000000002</v>
-      </c>
-      <c r="J9">
-        <v>52070.400000000001</v>
-      </c>
-      <c r="K9">
-        <v>32734.799999999999</v>
-      </c>
-      <c r="L9">
-        <v>263862</v>
-      </c>
-      <c r="M9">
-        <v>720</v>
-      </c>
-      <c r="N9">
-        <v>840</v>
-      </c>
-      <c r="O9">
-        <v>1200</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-6.6929857122558403E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-8.5523602876574678E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.37030964468791783</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.29954419830951362</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.22664479243082902</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.32973002075111535</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.3196952576202523</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.73881828313357034</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.57995578528210423</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.1911122348638572</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.37576258090731463</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.45090366688612882</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.36187950910258171</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>32976911.988548279</v>
+        <v>7326301.9000000004</v>
       </c>
       <c r="D10">
-        <v>39045632.671678528</v>
+        <v>8717395.0500000007</v>
       </c>
       <c r="E10">
-        <v>20648169.694809087</v>
+        <v>4412871.9000000004</v>
       </c>
       <c r="F10">
-        <v>23881347.329675458</v>
+        <v>5463614.4000000004</v>
       </c>
       <c r="G10">
-        <v>11551316.779380996</v>
+        <v>2544001.2000000002</v>
       </c>
       <c r="H10">
-        <v>30973966.427723713</v>
+        <v>15451051.75</v>
       </c>
       <c r="I10">
-        <v>9275176.9344573617</v>
+        <v>5026936.95</v>
       </c>
       <c r="J10">
-        <v>312669.67609914177</v>
+        <v>85548.5</v>
       </c>
       <c r="K10">
-        <v>194787.82622576255</v>
+        <v>55381.3</v>
       </c>
       <c r="L10">
-        <v>1087718.4930298026</v>
+        <v>922876.5</v>
       </c>
       <c r="M10">
-        <v>3552.3278768048003</v>
+        <v>1948.25</v>
       </c>
       <c r="N10">
-        <v>4341.4360683069772</v>
+        <v>2085.75</v>
       </c>
       <c r="O10">
-        <v>5141.4393706052469</v>
+        <v>4006.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.70907572509869254</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.7061673232304515</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.73244682019246499</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.69194844608441586</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.71426034574152264</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.37274055372767956</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.350147889375789</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.59725072092314102</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.57892481621616576</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.2524286545143406</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.34704852593957747</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.38353627237534038</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.26822262267047692</v>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>24583.015621663882</v>
+      </c>
+      <c r="D11">
+        <v>29134.995840696589</v>
+      </c>
+      <c r="E11">
+        <v>15293.260072617541</v>
+      </c>
+      <c r="F11">
+        <v>17906.003820786824</v>
+      </c>
+      <c r="G11">
+        <v>8604.6360773041743</v>
+      </c>
+      <c r="H11">
+        <v>91562.153130288003</v>
+      </c>
+      <c r="I11">
+        <v>28206.020285791954</v>
+      </c>
+      <c r="J11">
+        <v>499.32436076124088</v>
+      </c>
+      <c r="K11">
+        <v>336.75363865292991</v>
+      </c>
+      <c r="L11">
+        <v>3480.75</v>
+      </c>
+      <c r="M11">
+        <v>7.65</v>
+      </c>
+      <c r="N11">
+        <v>7.65</v>
+      </c>
+      <c r="O11">
+        <v>15.3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>38307910.600000001</v>
+        <v>5244033.6000000006</v>
       </c>
       <c r="D12">
-        <v>48999907.200000003</v>
+        <v>6214665.6000000006</v>
       </c>
       <c r="E12">
-        <v>85979866.599999994</v>
+        <v>3260812.8000000003</v>
       </c>
       <c r="F12">
-        <v>69696300.200000003</v>
+        <v>3818212.8000000003</v>
       </c>
       <c r="G12">
-        <v>24573314.199999999</v>
+        <v>1834012.8</v>
       </c>
       <c r="H12">
-        <v>1058134.6000000001</v>
+        <v>6103814.4000000004</v>
       </c>
       <c r="I12">
-        <v>326386.3</v>
+        <v>1880395.2000000002</v>
       </c>
       <c r="J12">
-        <v>6051.65</v>
+        <v>52070.400000000001</v>
       </c>
       <c r="K12">
-        <v>51933.2</v>
+        <v>32734.799999999999</v>
       </c>
       <c r="L12">
-        <v>44673.2</v>
+        <v>263862</v>
       </c>
       <c r="M12">
-        <v>440.15000000000003</v>
+        <v>720</v>
       </c>
       <c r="N12">
-        <v>440.15000000000003</v>
+        <v>840</v>
       </c>
       <c r="O12">
-        <v>440.15000000000003</v>
+        <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>209109.42242155806</v>
+        <v>32976911.988548279</v>
       </c>
       <c r="D13">
-        <v>267473.27465314552</v>
+        <v>39045632.671678528</v>
       </c>
       <c r="E13">
-        <v>469333.87812094903</v>
+        <v>20648169.694809087</v>
       </c>
       <c r="F13">
-        <v>380447.61124981643</v>
+        <v>23881347.329675458</v>
       </c>
       <c r="G13">
-        <v>134137.08706278205</v>
+        <v>11551316.779380996</v>
       </c>
       <c r="H13">
-        <v>10275.947468150182</v>
+        <v>30973966.427723713</v>
       </c>
       <c r="I13">
-        <v>3169.6614713514759</v>
+        <v>9275176.9344573617</v>
       </c>
       <c r="J13">
-        <v>74.660120310206068</v>
+        <v>312669.67609914177</v>
       </c>
       <c r="K13">
-        <v>597.28096248164854</v>
+        <v>194787.82622576255</v>
       </c>
       <c r="L13">
-        <v>448.79999999999995</v>
+        <v>1087718.4930298026</v>
       </c>
       <c r="M13">
-        <v>5.0999999999999996</v>
+        <v>3552.3278768048003</v>
       </c>
       <c r="N13">
-        <v>5.0999999999999996</v>
+        <v>4341.4360683069772</v>
       </c>
       <c r="O13">
-        <v>5.0999999999999996</v>
+        <v>5141.4393706052469</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>5244033.6000000006</v>
+        <f>($S$4*(C$11/POWER(1+$S$2,$S$4)))</f>
+        <v>245830.15621663883</v>
       </c>
       <c r="D14">
-        <v>6214665.6000000006</v>
+        <f>($S$4*(D$11/POWER(1+$S$2,$S$4)))</f>
+        <v>291349.95840696589</v>
       </c>
       <c r="E14">
-        <v>3260812.8000000003</v>
+        <f>($S$4*(E$11/POWER(1+$S$2,$S$4)))</f>
+        <v>152932.60072617541</v>
       </c>
       <c r="F14">
-        <v>3818212.8000000003</v>
+        <f>($S$4*(F$11/POWER(1+$S$2,$S$4)))</f>
+        <v>179060.03820786823</v>
       </c>
       <c r="G14">
-        <v>1834012.8</v>
+        <f>($S$4*(G$11/POWER(1+$S$2,$S$4)))</f>
+        <v>86046.360773041743</v>
       </c>
       <c r="H14">
-        <v>6103814.4000000004</v>
+        <f>($S$4*(H$11/POWER(1+$S$2,$S$4)))</f>
+        <v>915621.53130288003</v>
       </c>
       <c r="I14">
-        <v>1880395.2000000002</v>
+        <f>($S$4*(I$11/POWER(1+$S$2,$S$4)))</f>
+        <v>282060.20285791956</v>
       </c>
       <c r="J14">
-        <v>52070.400000000001</v>
+        <f>($S$4*(J$11/POWER(1+$S$2,$S$4)))</f>
+        <v>4993.2436076124086</v>
       </c>
       <c r="K14">
-        <v>32734.799999999999</v>
+        <f>($S$4*(K$11/POWER(1+$S$2,$S$4)))</f>
+        <v>3367.5363865292993</v>
       </c>
       <c r="L14">
-        <v>263862</v>
+        <f>($S$4*(L$11/POWER(1+$S$2,$S$4)))</f>
+        <v>34807.5</v>
       </c>
       <c r="M14">
-        <v>720</v>
+        <f>($S$4*(M$11/POWER(1+$S$2,$S$4)))</f>
+        <v>76.5</v>
       </c>
       <c r="N14">
-        <v>840</v>
+        <f>($S$4*(N$11/POWER(1+$S$2,$S$4)))</f>
+        <v>76.5</v>
       </c>
       <c r="O14">
-        <v>1200</v>
+        <f>($S$4*(O$11/POWER(1+$S$2,$S$4)))</f>
+        <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>-16509323.834779073</v>
+        <f>($S$4*((12*C$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>131100840</v>
       </c>
       <c r="D15">
-        <v>-23251676.771656141</v>
+        <f>($S$4*((12*D$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>155366640</v>
       </c>
       <c r="E15">
-        <v>-73894223.731166974</v>
+        <f>($S$4*((12*E$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>81520320</v>
       </c>
       <c r="F15">
-        <v>-54812576.016199328</v>
+        <f>($S$4*((12*F$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>95455320</v>
       </c>
       <c r="G15">
-        <v>-17213741.957866386</v>
+        <f>($S$4*((12*G$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>45850320</v>
       </c>
       <c r="H15">
-        <v>25323697.971828461</v>
+        <f>($S$4*((12*H$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>152595360</v>
       </c>
       <c r="I15">
-        <v>7801017.8745721597</v>
+        <f>($S$4*((12*I$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>47009880</v>
       </c>
       <c r="J15">
-        <v>219062.69278130546</v>
+        <f>($S$4*((12*J$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>1735680</v>
       </c>
       <c r="K15">
-        <v>87205.438924889531</v>
+        <f>($S$4*((12*K$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>1091160</v>
       </c>
       <c r="L15">
-        <v>1095768.1041362099</v>
+        <f>($S$4*((12*L$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>8795400</v>
       </c>
       <c r="M15">
-        <v>2654.992871833972</v>
+        <f>($S$4*((12*M$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>360000</v>
       </c>
       <c r="N15">
-        <v>3174.5300723096707</v>
+        <f>($S$4*((12*N$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>420000</v>
       </c>
       <c r="O15">
-        <v>4733.1416737367672</v>
+        <f>($S$4*((12*O$28)/POWER(1+$S$2,$S$4)))</f>
+        <v>600000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <f>((C$13+C$14+C$10)/C$15)*1000</f>
+        <v>309.2965998140433</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:O16" si="2">((D$13+D$14+D$10)/D$15)*1000</f>
+        <v>309.29662686974171</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>309.29680103727839</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>309.29676594121031</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>309.29695452843157</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>310.23642992176559</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>310.23636068237744</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>232.30746434063545</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>232.35516570648841</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>232.55366362300776</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>15.491882991124445</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>15.484966829302326</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>15.501565617675411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
-        <v>-0.12539210056043426</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-0.1463128281907895</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-0.4057865150599026</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-0.33767506633099342</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-0.27414262097829023</v>
-      </c>
-      <c r="H16" s="1">
-        <v>5.7583470667209768</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5.7511350328774284</v>
-      </c>
-      <c r="J16" s="1">
-        <v>8.5918880777432829</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.5495565728326508</v>
-      </c>
-      <c r="L16" s="1">
-        <v>5.8960699035483888</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1.6108299066400402</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1.8874019147516958</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2.7108985710346958</v>
+      <c r="C17" s="1">
+        <v>0.70907572509869254</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.7061673232304515</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.73244682019246499</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.69194844608441586</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.71426034574152264</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.37274055372767956</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.350147889375789</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.59725072092314102</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.57892481621616576</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.2524286545143406</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.34704852593957747</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.38353627237534038</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.26822262267047692</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" t="s">
-        <v>9</v>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>38307910.600000001</v>
+      </c>
+      <c r="D18">
+        <v>48999907.200000003</v>
+      </c>
+      <c r="E18">
+        <v>85979866.599999994</v>
+      </c>
+      <c r="F18">
+        <v>69696300.200000003</v>
+      </c>
+      <c r="G18">
+        <v>24573314.199999999</v>
+      </c>
+      <c r="H18">
+        <v>1058134.6000000001</v>
+      </c>
+      <c r="I18">
+        <v>326386.3</v>
+      </c>
+      <c r="J18">
+        <v>6051.65</v>
+      </c>
+      <c r="K18">
+        <v>51933.2</v>
+      </c>
+      <c r="L18">
+        <v>44673.2</v>
+      </c>
+      <c r="M18">
+        <v>440.15000000000003</v>
+      </c>
+      <c r="N18">
+        <v>440.15000000000003</v>
+      </c>
+      <c r="O18">
+        <v>440.15000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>209109.42242155806</v>
+      </c>
+      <c r="D19">
+        <v>267473.27465314552</v>
+      </c>
+      <c r="E19">
+        <v>469333.87812094903</v>
+      </c>
+      <c r="F19">
+        <v>380447.61124981643</v>
+      </c>
+      <c r="G19">
+        <v>134137.08706278205</v>
+      </c>
+      <c r="H19">
+        <v>10275.947468150182</v>
+      </c>
+      <c r="I19">
+        <v>3169.6614713514759</v>
+      </c>
+      <c r="J19">
+        <v>74.660120310206068</v>
+      </c>
+      <c r="K19">
+        <v>597.28096248164854</v>
+      </c>
+      <c r="L19">
+        <v>448.79999999999995</v>
+      </c>
+      <c r="M19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O19">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>5244033.6000000006</v>
@@ -7292,140 +9383,424 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>-16509323.834779073</v>
+      </c>
+      <c r="D21">
+        <v>-23251676.771656141</v>
+      </c>
+      <c r="E21">
+        <v>-73894223.731166974</v>
+      </c>
+      <c r="F21">
+        <v>-54812576.016199328</v>
+      </c>
+      <c r="G21">
+        <v>-17213741.957866386</v>
+      </c>
+      <c r="H21">
+        <v>25323697.971828461</v>
+      </c>
+      <c r="I21">
+        <v>7801017.8745721597</v>
+      </c>
+      <c r="J21">
+        <v>219062.69278130546</v>
+      </c>
+      <c r="K21">
+        <v>87205.438924889531</v>
+      </c>
+      <c r="L21">
+        <v>1095768.1041362099</v>
+      </c>
+      <c r="M21">
+        <v>2654.992871833972</v>
+      </c>
+      <c r="N21">
+        <v>3174.5300723096707</v>
+      </c>
+      <c r="O21">
+        <v>4733.1416737367672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <f>($S$5*(C$19/POWER(1+$S$2,$S$5)))</f>
+        <v>1045547.1121077903</v>
+      </c>
+      <c r="D22">
+        <f>($S$5*(D$19/POWER(1+$S$2,$S$5)))</f>
+        <v>1337366.3732657277</v>
+      </c>
+      <c r="E22">
+        <f>($S$5*(E$19/POWER(1+$S$2,$S$5)))</f>
+        <v>2346669.3906047451</v>
+      </c>
+      <c r="F22">
+        <f>($S$5*(F$19/POWER(1+$S$2,$S$5)))</f>
+        <v>1902238.0562490821</v>
+      </c>
+      <c r="G22">
+        <f>($S$5*(G$19/POWER(1+$S$2,$S$5)))</f>
+        <v>670685.43531391025</v>
+      </c>
+      <c r="H22">
+        <f>($S$5*(H$19/POWER(1+$S$2,$S$5)))</f>
+        <v>51379.737340750908</v>
+      </c>
+      <c r="I22">
+        <f>($S$5*(I$19/POWER(1+$S$2,$S$5)))</f>
+        <v>15848.307356757379</v>
+      </c>
+      <c r="J22">
+        <f>($S$5*(J$19/POWER(1+$S$2,$S$5)))</f>
+        <v>373.30060155103035</v>
+      </c>
+      <c r="K22">
+        <f>($S$5*(K$19/POWER(1+$S$2,$S$5)))</f>
+        <v>2986.4048124082428</v>
+      </c>
+      <c r="L22">
+        <f>($S$5*(L$19/POWER(1+$S$2,$S$5)))</f>
+        <v>2244</v>
+      </c>
+      <c r="M22">
+        <f>($S$5*(M$19/POWER(1+$S$2,$S$5)))</f>
+        <v>25.5</v>
+      </c>
+      <c r="N22">
+        <f>($S$5*(N$19/POWER(1+$S$2,$S$5)))</f>
+        <v>25.5</v>
+      </c>
+      <c r="O22">
+        <f>($S$5*(O$19/POWER(1+$S$2,$S$5)))</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f>($S$5*((12*C$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>65550420</v>
+      </c>
+      <c r="D23">
+        <f>($S$5*((12*D$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>77683320</v>
+      </c>
+      <c r="E23">
+        <f>($S$5*((12*E$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>40760160</v>
+      </c>
+      <c r="F23">
+        <f>($S$5*((12*F$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>47727660</v>
+      </c>
+      <c r="G23">
+        <f>($S$5*((12*G$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>22925160</v>
+      </c>
+      <c r="H23">
+        <f>($S$5*((12*H$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>76297680</v>
+      </c>
+      <c r="I23">
+        <f>($S$5*((12*I$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>23504940</v>
+      </c>
+      <c r="J23">
+        <f>($S$5*((12*J$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>867840</v>
+      </c>
+      <c r="K23">
+        <f>($S$5*((12*K$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>545580</v>
+      </c>
+      <c r="L23">
+        <f>($S$5*((12*L$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>4397700</v>
+      </c>
+      <c r="M23">
+        <f>($S$5*((12*M$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>180000</v>
+      </c>
+      <c r="N23">
+        <f>($S$5*((12*N$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>210000</v>
+      </c>
+      <c r="O23">
+        <f>($S$5*((12*O$28)/POWER(1+$S$2,$S$5)))</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <f>((C$21+C$22+C$18)/C$23)*1000</f>
+        <v>348.49713971823093</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:O24" si="3">((D$21+D$22+D$18)/D$23)*1000</f>
+        <v>348.66682836945677</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>354.07889123687858</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>351.70302168699993</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>350.28142344252012</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>346.44844127854498</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>346.44855430087955</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>259.82628524020151</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>260.50266457219431</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>259.8370293872274</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>17.336904843522067</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>17.334190820522242</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>17.329305579122554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-0.12539210056043426</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.1463128281907895</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-0.4057865150599026</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-0.33767506633099342</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.27414262097829023</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5.7583470667209768</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5.7511350328774284</v>
+      </c>
+      <c r="J25" s="1">
+        <v>8.5918880777432829</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.5495565728326508</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5.8960699035483888</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.6108299066400402</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.8874019147516958</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2.7108985710346958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>5244033.6000000006</v>
+      </c>
+      <c r="D27">
+        <v>6214665.6000000006</v>
+      </c>
+      <c r="E27">
+        <v>3260812.8000000003</v>
+      </c>
+      <c r="F27">
+        <v>3818212.8000000003</v>
+      </c>
+      <c r="G27">
+        <v>1834012.8</v>
+      </c>
+      <c r="H27">
+        <v>6103814.4000000004</v>
+      </c>
+      <c r="I27">
+        <v>1880395.2000000002</v>
+      </c>
+      <c r="J27">
+        <v>52070.400000000001</v>
+      </c>
+      <c r="K27">
+        <v>32734.799999999999</v>
+      </c>
+      <c r="L27">
+        <v>263862</v>
+      </c>
+      <c r="M27">
+        <v>720</v>
+      </c>
+      <c r="N27">
+        <v>840</v>
+      </c>
+      <c r="O27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>1092507</v>
+      </c>
+      <c r="D28">
+        <v>1294722</v>
+      </c>
+      <c r="E28">
+        <v>679336</v>
+      </c>
+      <c r="F28">
+        <v>795461</v>
+      </c>
+      <c r="G28">
+        <v>382086</v>
+      </c>
+      <c r="H28">
+        <v>1271628</v>
+      </c>
+      <c r="I28">
+        <v>391749</v>
+      </c>
+      <c r="J28">
+        <v>14464</v>
+      </c>
+      <c r="K28">
+        <v>9093</v>
+      </c>
+      <c r="L28">
+        <v>73295</v>
+      </c>
+      <c r="M28">
+        <v>3000</v>
+      </c>
+      <c r="N28">
+        <v>3500</v>
+      </c>
+      <c r="O28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <v>400</v>
+      </c>
+      <c r="E29">
+        <v>400</v>
+      </c>
+      <c r="F29">
+        <v>400</v>
+      </c>
+      <c r="G29">
+        <v>400</v>
+      </c>
+      <c r="H29">
+        <v>400</v>
+      </c>
+      <c r="I29">
+        <v>400</v>
+      </c>
+      <c r="J29">
+        <v>300</v>
+      </c>
+      <c r="K29">
+        <v>300</v>
+      </c>
+      <c r="L29">
+        <v>300</v>
+      </c>
+      <c r="M29">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>1092507</v>
-      </c>
-      <c r="D24">
-        <v>1294722</v>
-      </c>
-      <c r="E24">
-        <v>679336</v>
-      </c>
-      <c r="F24">
-        <v>795461</v>
-      </c>
-      <c r="G24">
-        <v>382086</v>
-      </c>
-      <c r="H24">
-        <v>1271628</v>
-      </c>
-      <c r="I24">
-        <v>391749</v>
-      </c>
-      <c r="J24">
-        <v>14464</v>
-      </c>
-      <c r="K24">
-        <v>9093</v>
-      </c>
-      <c r="L24">
-        <v>73295</v>
-      </c>
-      <c r="M24">
-        <v>3000</v>
-      </c>
-      <c r="N24">
-        <v>3500</v>
-      </c>
-      <c r="O24">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>400</v>
-      </c>
-      <c r="D25">
-        <v>400</v>
-      </c>
-      <c r="E25">
-        <v>400</v>
-      </c>
-      <c r="F25">
-        <v>400</v>
-      </c>
-      <c r="G25">
-        <v>400</v>
-      </c>
-      <c r="H25">
-        <v>400</v>
-      </c>
-      <c r="I25">
-        <v>400</v>
-      </c>
-      <c r="J25">
-        <v>300</v>
-      </c>
-      <c r="K25">
-        <v>300</v>
-      </c>
-      <c r="L25">
-        <v>300</v>
-      </c>
-      <c r="M25">
+      <c r="N29">
         <v>20</v>
       </c>
-      <c r="N25">
-        <v>20</v>
-      </c>
-      <c r="O25">
+      <c r="O29">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Project Wing/Model/Opex.xlsx
+++ b/Project Wing/Model/Opex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Exocoetidae\Project Wing\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F66C54-7D6C-45D3-AACD-54249D184AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7693652-F285-4DA5-AD50-2B87D5481D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="1425" windowWidth="20055" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>UAV-Based</t>
   </si>
@@ -130,12 +130,54 @@
   <si>
     <t>Pay-For-Usage</t>
   </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Connected Users</t>
+  </si>
+  <si>
+    <t>UAV</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Number of Cells</t>
+  </si>
+  <si>
+    <t>Active Users Ratio</t>
+  </si>
+  <si>
+    <t>Price per GB</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Price per Minute</t>
+  </si>
+  <si>
+    <t>With Tax</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Probability of Usage</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +200,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -185,20 +251,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -299,7 +372,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$O$9</c:f>
+              <c:f>Sheet1!$C$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -428,7 +501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$O$17</c:f>
+              <c:f>Sheet1!$C$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -557,7 +630,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$O$25</c:f>
+              <c:f>Sheet1!$C$43:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -985,7 +1058,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11:$B$11</c:f>
+              <c:f>Sheet1!$A$17:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1059,7 +1132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$O$11</c:f>
+              <c:f>Sheet1!$C$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1117,7 +1190,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$19:$B$19</c:f>
+              <c:f>Sheet1!$A$31:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1193,7 +1266,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$O$19</c:f>
+              <c:f>Sheet1!$C$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1581,7 +1654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$O$27</c:f>
+              <c:f>Sheet1!$C$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2072,7 +2145,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$B$13</c:f>
+              <c:f>Sheet1!$A$19:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2143,7 +2216,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$O$13</c:f>
+              <c:f>Sheet1!$C$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2200,7 +2273,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$B$21</c:f>
+              <c:f>Sheet1!$A$33:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2271,7 +2344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$O$21</c:f>
+              <c:f>Sheet1!$C$33:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2660,7 +2733,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$O$29</c:f>
+              <c:f>Sheet1!$C$47:$O$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2802,7 +2875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$O$28</c:f>
+              <c:f>Sheet1!$C$46:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3273,6 +3346,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4360854781581483"/>
+          <c:y val="0.76045597120238673"/>
+          <c:w val="0.13090540177667886"/>
+          <c:h val="3.0194575106776464E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3378,7 +3461,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9:$B$9</c:f>
+              <c:f>Sheet1!$A$15:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3449,7 +3532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$O$9</c:f>
+              <c:f>Sheet1!$C$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3506,7 +3589,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$17:$B$17</c:f>
+              <c:f>Sheet1!$A$29:$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3577,7 +3660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$O$17</c:f>
+              <c:f>Sheet1!$C$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3634,7 +3717,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$B$25</c:f>
+              <c:f>Sheet1!$A$43:$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3705,7 +3788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$O$25</c:f>
+              <c:f>Sheet1!$C$43:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3777,7 +3860,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8:$B$8</c:f>
+              <c:f>Sheet1!$A$14:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3850,7 +3933,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$O$8</c:f>
+              <c:f>Sheet1!$C$14:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3908,7 +3991,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$16:$B$16</c:f>
+              <c:f>Sheet1!$A$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3982,7 +4065,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$O$16</c:f>
+              <c:f>Sheet1!$C$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4040,7 +4123,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24:$B$24</c:f>
+              <c:f>Sheet1!$A$42:$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4114,7 +4197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$O$24</c:f>
+              <c:f>Sheet1!$C$42:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4493,6 +4576,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="827844128"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4553,6 +4637,1136 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8632577911079258E-2"/>
+          <c:y val="5.908823770186343E-2"/>
+          <c:w val="0.89071899239084262"/>
+          <c:h val="0.72437685268605656"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UAV-Based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price per GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.9725216712703242E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.726060671287572E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3815176232698053E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2492778109303016E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6593613862163657E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7812575702074988E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7812574812410496E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6905860007375927E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0126723105187362E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0864609174458822E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8635890614584708E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0060549507553105E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1476917960938513E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-373F-4137-A878-46214C75BCD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>UAV-Based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price per Minute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.1995892989368074E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9343014170109282E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0217724417140254E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3447087548208107E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7861181587745602E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7899435931351362E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7899434399151409E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5733419803575709E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9107134236711569E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5933493578234636E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4327346021919288E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1705771556961389E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4327346021919277E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-373F-4137-A878-46214C75BCD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LC-Based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price per GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.2651677466542663E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2651683821743057E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2511199152764952E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2511190924881661E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2511235137060731E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2834303338176296E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2834298241955996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5569111986730649E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3148351672802071E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7116625855032829E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1115696943831589E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4623981782170894E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7607412105492288E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-373F-4137-A878-46214C75BCD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LC-Based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price per Minute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.5640291676825156E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5640293044958573E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5610049817609121E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5610048046328687E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5610057564228353E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9157180797462861E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9157169826433047E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6572393860322916E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1361034851171129E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6848291771251227E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5457403142970786E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3009960781062347E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7904845504879231E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-373F-4137-A878-46214C75BCD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hotspot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price per GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$O$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0687929645523061E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8020392835666543E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0164206429390025E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4942706882134892E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9681395455071806E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4791897368474133E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4762391283205357E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9107218406755425E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3080083557076867E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8439023230930815E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4308259217590764E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1684876759965992E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3814729387091651E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-373F-4137-A878-46214C75BCD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="39"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hotspot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price per Minute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Mopani</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vhembe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waterberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chris-Hani</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Frances Baard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Soweto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Khayelitsha</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lulekani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Zeerust</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Duduza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hlankomo</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mandileni</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gon’on’o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.3008737431334368E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1101612346567106E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4936833285492414E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.675166064904039E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2848078188244626E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.337144572379848E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3307925679122641E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2661372958987358E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9686290990929369E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9695119455476064E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5385835815646778E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.112660541360379E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5890670909721121E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-373F-4137-A878-46214C75BCD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="591211775"/>
+        <c:axId val="1419729631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="591211775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Strategy - Scenarios</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46519768514279342"/>
+              <c:y val="0.8542690074329039"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419729631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1419729631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Capped Subscription Fee [ZAR]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3416652260204774E-2"/>
+              <c:y val="0.24814138523684895"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591211775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4818,6 +6032,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7373,6 +8627,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7887,7 +9644,7 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>239486</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7917,13 +9674,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>457196</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>110493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>293914</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7955,13 +9712,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7991,13 +9748,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>124691</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>31370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>364177</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8033,8 +9790,8 @@
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>486641</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>40697</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8063,13 +9820,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>2721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8090,6 +9847,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>29133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223E7B76-15D2-4A40-9FF2-E3F6DF6492FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8361,13 +10154,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -8411,7 +10207,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -8464,7 +10260,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -8515,7 +10311,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -8566,7 +10362,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -8617,7 +10413,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -8673,1136 +10469,2251 @@
         <f t="shared" si="0"/>
         <v>127.5</v>
       </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7">
-        <f>($S$3*((12*C$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" ref="C7:O7" si="1">($S$3*((12*C$46)/POWER(1+$S$2,$S$3)))</f>
         <v>65550420</v>
       </c>
       <c r="D7">
-        <f>($S$3*((12*D$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>77683320</v>
       </c>
       <c r="E7">
-        <f>($S$3*((12*E$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>40760160</v>
       </c>
       <c r="F7">
-        <f>($S$3*((12*F$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>47727660</v>
       </c>
       <c r="G7">
-        <f>($S$3*((12*G$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>22925160</v>
       </c>
       <c r="H7">
-        <f>($S$3*((12*H$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>76297680</v>
       </c>
       <c r="I7">
-        <f>($S$3*((12*I$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>23504940</v>
       </c>
       <c r="J7">
-        <f>($S$3*((12*J$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>867840</v>
       </c>
       <c r="K7">
-        <f>($S$3*((12*K$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>545580</v>
       </c>
       <c r="L7">
-        <f>($S$3*((12*L$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>4397700</v>
       </c>
       <c r="M7">
-        <f>($S$3*((12*M$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
       <c r="N7">
-        <f>($S$3*((12*N$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>210000</v>
       </c>
       <c r="O7">
-        <f>($S$3*((12*O$28)/POWER(1+$S$2,$S$3)))</f>
+        <f t="shared" si="1"/>
         <v>300000</v>
+      </c>
+      <c r="R7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>1440</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <f>((C$5+C$6+C$2)/C$7)*1000</f>
-        <v>348.37128286823958</v>
+        <v>30809</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:O8" si="1">((D$5+D$6+D$2)/D$7)*1000</f>
-        <v>348.53098721907259</v>
+        <v>39408</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>353.62461004337632</v>
+        <v>69149</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>351.38853413973567</v>
+        <v>56053</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>350.0505812292734</v>
+        <v>19763</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>347.6860389470358</v>
+        <v>23654</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>347.68602782530706</v>
+        <v>7287</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>260.39541310147337</v>
+        <v>127</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>260.45947300476308</v>
+        <v>88</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
-        <v>260.82925205321249</v>
+        <v>1364</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>17.37490116551966</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>17.36675909652017</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
-        <v>17.374901165519656</v>
-      </c>
-      <c r="R8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8">
-        <f>AVERAGE(C8:O8,C16:O16,C24:O24)</f>
-        <v>242.82258180098538</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-6.6929857122558403E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-8.5523602876574678E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-0.37030964468791783</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.29954419830951362</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-0.22664479243082902</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.32973002075111535</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.3196952576202523</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.73881828313357034</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.57995578528210423</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.1911122348638572</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.37576258090731463</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.45090366688612882</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.36187950910258171</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:O9" si="2">_xlfn.CEILING.MATH((C$46)/C$8)</f>
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>1167</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>7326301.9000000004</v>
-      </c>
-      <c r="D10">
-        <v>8717395.0500000007</v>
-      </c>
-      <c r="E10">
-        <v>4412871.9000000004</v>
-      </c>
-      <c r="F10">
-        <v>5463614.4000000004</v>
-      </c>
-      <c r="G10">
-        <v>2544001.2000000002</v>
-      </c>
-      <c r="H10">
-        <v>15451051.75</v>
-      </c>
-      <c r="I10">
-        <v>5026936.95</v>
-      </c>
-      <c r="J10">
-        <v>85548.5</v>
-      </c>
-      <c r="K10">
-        <v>55381.3</v>
-      </c>
-      <c r="L10">
-        <v>922876.5</v>
-      </c>
-      <c r="M10">
-        <v>1948.25</v>
-      </c>
-      <c r="N10">
-        <v>2085.75</v>
-      </c>
-      <c r="O10">
-        <v>4006.5</v>
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <f>(C$14*C$9)/($S$6*$R$21*C$48)+C$14*$S$17</f>
+        <v>2.9725216712703242E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:O10" si="3">(D$14*D$9)/($S$6*$R$21*D$48)+D$14*$S$17</f>
+        <v>2.726060671287572E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="3"/>
+        <v>8.3815176232698053E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2492778109303016E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6593613862163657E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7812575702074988E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7812574812410496E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6905860007375927E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0126723105187362E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0864609174458822E-2</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="3"/>
+        <v>6.8635890614584708E-2</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="3"/>
+        <v>8.0060549507553105E-2</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="3"/>
+        <v>5.1476917960938513E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>24583.015621663882</v>
-      </c>
-      <c r="D11">
-        <v>29134.995840696589</v>
-      </c>
-      <c r="E11">
-        <v>15293.260072617541</v>
-      </c>
-      <c r="F11">
-        <v>17906.003820786824</v>
-      </c>
-      <c r="G11">
-        <v>8604.6360773041743</v>
-      </c>
-      <c r="H11">
-        <v>91562.153130288003</v>
-      </c>
-      <c r="I11">
-        <v>28206.020285791954</v>
-      </c>
-      <c r="J11">
-        <v>499.32436076124088</v>
-      </c>
-      <c r="K11">
-        <v>336.75363865292991</v>
-      </c>
-      <c r="L11">
-        <v>3480.75</v>
-      </c>
-      <c r="M11">
-        <v>7.65</v>
-      </c>
-      <c r="N11">
-        <v>7.65</v>
-      </c>
-      <c r="O11">
-        <v>15.3</v>
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5">
+        <f>(C$10*$S$16)+C$10</f>
+        <v>3.4183999219608727E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:O11" si="4">(D$10*$S$16)+D$10</f>
+        <v>3.1349697719807078E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="4"/>
+        <v>9.638745266760276E-3</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4366694825698467E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9082655941488204E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="4"/>
+        <v>3.1984462057386233E-2</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="4"/>
+        <v>3.198446103427207E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="4"/>
+        <v>5.3941739008482315E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="4"/>
+        <v>4.6145731570965465E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>2.3994300550627644E-2</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
+        <v>7.8931274206772414E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="4"/>
+        <v>9.2069631933686072E-2</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="4"/>
+        <v>5.9198455655079293E-2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>5244033.6000000006</v>
-      </c>
-      <c r="D12">
-        <v>6214665.6000000006</v>
-      </c>
-      <c r="E12">
-        <v>3260812.8000000003</v>
-      </c>
-      <c r="F12">
-        <v>3818212.8000000003</v>
-      </c>
-      <c r="G12">
-        <v>1834012.8</v>
-      </c>
-      <c r="H12">
-        <v>6103814.4000000004</v>
-      </c>
-      <c r="I12">
-        <v>1880395.2000000002</v>
-      </c>
-      <c r="J12">
-        <v>52070.400000000001</v>
-      </c>
-      <c r="K12">
-        <v>32734.799999999999</v>
-      </c>
-      <c r="L12">
-        <v>263862</v>
-      </c>
-      <c r="M12">
-        <v>720</v>
-      </c>
-      <c r="N12">
-        <v>840</v>
-      </c>
-      <c r="O12">
-        <v>1200</v>
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4">
+        <f>(C$14*C$9)/($S$7*$R$21)+C$14*$S$17</f>
+        <v>3.1995892989368074E-4</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:O12" si="5">(D$14*D$9)/($S$7*$R$21)+D$14*$S$17</f>
+        <v>2.9343014170109282E-4</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="5"/>
+        <v>9.0217724417140254E-5</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3447087548208107E-4</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="5"/>
+        <v>1.7861181587745602E-4</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="5"/>
+        <v>4.7899435931351362E-4</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="5"/>
+        <v>4.7899434399151409E-4</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="5"/>
+        <v>7.5733419803575709E-4</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="5"/>
+        <v>6.9107134236711569E-4</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="5"/>
+        <v>3.5933493578234636E-4</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>4.4327346021919288E-4</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="5"/>
+        <v>5.1705771556961389E-4</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="5"/>
+        <v>4.4327346021919277E-4</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>32976911.988548279</v>
-      </c>
-      <c r="D13">
-        <v>39045632.671678528</v>
-      </c>
-      <c r="E13">
-        <v>20648169.694809087</v>
-      </c>
-      <c r="F13">
-        <v>23881347.329675458</v>
-      </c>
-      <c r="G13">
-        <v>11551316.779380996</v>
-      </c>
-      <c r="H13">
-        <v>30973966.427723713</v>
-      </c>
-      <c r="I13">
-        <v>9275176.9344573617</v>
-      </c>
-      <c r="J13">
-        <v>312669.67609914177</v>
-      </c>
-      <c r="K13">
-        <v>194787.82622576255</v>
-      </c>
-      <c r="L13">
-        <v>1087718.4930298026</v>
-      </c>
-      <c r="M13">
-        <v>3552.3278768048003</v>
-      </c>
-      <c r="N13">
-        <v>4341.4360683069772</v>
-      </c>
-      <c r="O13">
-        <v>5141.4393706052469</v>
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5">
+        <f>(C$12*$S$16)+C$12</f>
+        <v>3.6795276937773286E-4</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:O13" si="6">(D$12*$S$16)+D$12</f>
+        <v>3.3744466295625674E-4</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0375038307971129E-4</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>1.5464150680439322E-4</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="6"/>
+        <v>2.0540358825907443E-4</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>5.5084351321054066E-4</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="6"/>
+        <v>5.5084349559024123E-4</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="6"/>
+        <v>8.7093432774112067E-4</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="6"/>
+        <v>7.9473204372218303E-4</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="6"/>
+        <v>4.1323517614969831E-4</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="6"/>
+        <v>5.0976447925207185E-4</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="6"/>
+        <v>5.9461637290505597E-4</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="6"/>
+        <v>5.0976447925207163E-4</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <f>($S$4*(C$11/POWER(1+$S$2,$S$4)))</f>
-        <v>245830.15621663883</v>
+        <f t="shared" ref="C14:O14" si="7">((C$5+C$6+C$2)/C$7)*1000</f>
+        <v>348.37128286823958</v>
       </c>
       <c r="D14">
-        <f>($S$4*(D$11/POWER(1+$S$2,$S$4)))</f>
-        <v>291349.95840696589</v>
+        <f t="shared" si="7"/>
+        <v>348.53098721907259</v>
       </c>
       <c r="E14">
-        <f>($S$4*(E$11/POWER(1+$S$2,$S$4)))</f>
-        <v>152932.60072617541</v>
+        <f t="shared" si="7"/>
+        <v>353.62461004337632</v>
       </c>
       <c r="F14">
-        <f>($S$4*(F$11/POWER(1+$S$2,$S$4)))</f>
-        <v>179060.03820786823</v>
+        <f t="shared" si="7"/>
+        <v>351.38853413973567</v>
       </c>
       <c r="G14">
-        <f>($S$4*(G$11/POWER(1+$S$2,$S$4)))</f>
-        <v>86046.360773041743</v>
+        <f t="shared" si="7"/>
+        <v>350.0505812292734</v>
       </c>
       <c r="H14">
-        <f>($S$4*(H$11/POWER(1+$S$2,$S$4)))</f>
-        <v>915621.53130288003</v>
+        <f t="shared" si="7"/>
+        <v>347.6860389470358</v>
       </c>
       <c r="I14">
-        <f>($S$4*(I$11/POWER(1+$S$2,$S$4)))</f>
-        <v>282060.20285791956</v>
+        <f t="shared" si="7"/>
+        <v>347.68602782530706</v>
       </c>
       <c r="J14">
-        <f>($S$4*(J$11/POWER(1+$S$2,$S$4)))</f>
-        <v>4993.2436076124086</v>
+        <f t="shared" si="7"/>
+        <v>260.39541310147337</v>
       </c>
       <c r="K14">
-        <f>($S$4*(K$11/POWER(1+$S$2,$S$4)))</f>
-        <v>3367.5363865292993</v>
+        <f t="shared" si="7"/>
+        <v>260.45947300476308</v>
       </c>
       <c r="L14">
-        <f>($S$4*(L$11/POWER(1+$S$2,$S$4)))</f>
-        <v>34807.5</v>
+        <f t="shared" si="7"/>
+        <v>260.82925205321249</v>
       </c>
       <c r="M14">
-        <f>($S$4*(M$11/POWER(1+$S$2,$S$4)))</f>
-        <v>76.5</v>
+        <f t="shared" si="7"/>
+        <v>17.37490116551966</v>
       </c>
       <c r="N14">
-        <f>($S$4*(N$11/POWER(1+$S$2,$S$4)))</f>
-        <v>76.5</v>
+        <f t="shared" si="7"/>
+        <v>17.36675909652017</v>
       </c>
       <c r="O14">
-        <f>($S$4*(O$11/POWER(1+$S$2,$S$4)))</f>
-        <v>153</v>
+        <f t="shared" si="7"/>
+        <v>17.374901165519656</v>
+      </c>
+      <c r="R14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14">
+        <f>AVERAGE(C14:O14,C28:O28,C42:O42)</f>
+        <v>242.82258180098538</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <f>($S$4*((12*C$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>131100840</v>
-      </c>
-      <c r="D15">
-        <f>($S$4*((12*D$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>155366640</v>
-      </c>
-      <c r="E15">
-        <f>($S$4*((12*E$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>81520320</v>
-      </c>
-      <c r="F15">
-        <f>($S$4*((12*F$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>95455320</v>
-      </c>
-      <c r="G15">
-        <f>($S$4*((12*G$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>45850320</v>
-      </c>
-      <c r="H15">
-        <f>($S$4*((12*H$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>152595360</v>
-      </c>
-      <c r="I15">
-        <f>($S$4*((12*I$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>47009880</v>
-      </c>
-      <c r="J15">
-        <f>($S$4*((12*J$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>1735680</v>
-      </c>
-      <c r="K15">
-        <f>($S$4*((12*K$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>1091160</v>
-      </c>
-      <c r="L15">
-        <f>($S$4*((12*L$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>8795400</v>
-      </c>
-      <c r="M15">
-        <f>($S$4*((12*M$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>360000</v>
-      </c>
-      <c r="N15">
-        <f>($S$4*((12*N$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>420000</v>
-      </c>
-      <c r="O15">
-        <f>($S$4*((12*O$28)/POWER(1+$S$2,$S$4)))</f>
-        <v>600000</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-6.6929857122558403E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-8.5523602876574678E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.37030964468791783</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.29954419830951362</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-0.22664479243082902</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.32973002075111535</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.3196952576202523</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.73881828313357034</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.57995578528210423</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.1911122348638572</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.37576258090731463</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.45090366688612882</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.36187950910258171</v>
+      </c>
+      <c r="R15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15">
+        <f>AVERAGE(C10:O10,C24:O24,C38:O38)</f>
+        <v>2.685272737083463E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>7326301.9000000004</v>
+      </c>
+      <c r="D16">
+        <v>8717395.0500000007</v>
+      </c>
+      <c r="E16">
+        <v>4412871.9000000004</v>
+      </c>
+      <c r="F16">
+        <v>5463614.4000000004</v>
+      </c>
+      <c r="G16">
+        <v>2544001.2000000002</v>
+      </c>
+      <c r="H16">
+        <v>15451051.75</v>
+      </c>
+      <c r="I16">
+        <v>5026936.95</v>
+      </c>
+      <c r="J16">
+        <v>85548.5</v>
+      </c>
+      <c r="K16">
+        <v>55381.3</v>
+      </c>
+      <c r="L16">
+        <v>922876.5</v>
+      </c>
+      <c r="M16">
+        <v>1948.25</v>
+      </c>
+      <c r="N16">
+        <v>2085.75</v>
+      </c>
+      <c r="O16">
+        <v>4006.5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>24583.015621663882</v>
+      </c>
+      <c r="D17">
+        <v>29134.995840696589</v>
+      </c>
+      <c r="E17">
+        <v>15293.260072617541</v>
+      </c>
+      <c r="F17">
+        <v>17906.003820786824</v>
+      </c>
+      <c r="G17">
+        <v>8604.6360773041743</v>
+      </c>
+      <c r="H17">
+        <v>91562.153130288003</v>
+      </c>
+      <c r="I17">
+        <v>28206.020285791954</v>
+      </c>
+      <c r="J17">
+        <v>499.32436076124088</v>
+      </c>
+      <c r="K17">
+        <v>336.75363865292991</v>
+      </c>
+      <c r="L17">
+        <v>3480.75</v>
+      </c>
+      <c r="M17">
+        <v>7.65</v>
+      </c>
+      <c r="N17">
+        <v>7.65</v>
+      </c>
+      <c r="O17">
+        <v>15.3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>5244033.6000000006</v>
+      </c>
+      <c r="D18">
+        <v>6214665.6000000006</v>
+      </c>
+      <c r="E18">
+        <v>3260812.8000000003</v>
+      </c>
+      <c r="F18">
+        <v>3818212.8000000003</v>
+      </c>
+      <c r="G18">
+        <v>1834012.8</v>
+      </c>
+      <c r="H18">
+        <v>6103814.4000000004</v>
+      </c>
+      <c r="I18">
+        <v>1880395.2000000002</v>
+      </c>
+      <c r="J18">
+        <v>52070.400000000001</v>
+      </c>
+      <c r="K18">
+        <v>32734.799999999999</v>
+      </c>
+      <c r="L18">
+        <v>263862</v>
+      </c>
+      <c r="M18">
+        <v>720</v>
+      </c>
+      <c r="N18">
+        <v>840</v>
+      </c>
+      <c r="O18">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>32976911.988548279</v>
+      </c>
+      <c r="D19">
+        <v>39045632.671678528</v>
+      </c>
+      <c r="E19">
+        <v>20648169.694809087</v>
+      </c>
+      <c r="F19">
+        <v>23881347.329675458</v>
+      </c>
+      <c r="G19">
+        <v>11551316.779380996</v>
+      </c>
+      <c r="H19">
+        <v>30973966.427723713</v>
+      </c>
+      <c r="I19">
+        <v>9275176.9344573617</v>
+      </c>
+      <c r="J19">
+        <v>312669.67609914177</v>
+      </c>
+      <c r="K19">
+        <v>194787.82622576255</v>
+      </c>
+      <c r="L19">
+        <v>1087718.4930298026</v>
+      </c>
+      <c r="M19">
+        <v>3552.3278768048003</v>
+      </c>
+      <c r="N19">
+        <v>4341.4360683069772</v>
+      </c>
+      <c r="O19">
+        <v>5141.4393706052469</v>
+      </c>
+      <c r="R19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:O20" si="8">($S$4*(C$17/POWER(1+$S$2,$S$4)))</f>
+        <v>245830.15621663883</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>291349.95840696589</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>152932.60072617541</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>179060.03820786823</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>86046.360773041743</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>915621.53130288003</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>282060.20285791956</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>4993.2436076124086</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>3367.5363865292993</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>34807.5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>76.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="8"/>
+        <v>76.5</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+      <c r="R20" s="3">
+        <v>27.216000000000001</v>
+      </c>
+      <c r="S20" s="3">
+        <v>81.647999999999996</v>
+      </c>
+      <c r="T20" s="3">
+        <v>435.45600000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:O21" si="9">($S$4*((12*C$46)/POWER(1+$S$2,$S$4)))</f>
+        <v>131100840</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="9"/>
+        <v>155366640</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="9"/>
+        <v>81520320</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>95455320</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="9"/>
+        <v>45850320</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>152595360</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="9"/>
+        <v>47009880</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>1735680</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="9"/>
+        <v>1091160</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>8795400</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="9"/>
+        <v>360000</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="9"/>
+        <v>420000</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>600000</v>
+      </c>
+      <c r="R21">
+        <v>27220</v>
+      </c>
+      <c r="S21">
+        <v>81650</v>
+      </c>
+      <c r="T21">
+        <v>435456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>2117</v>
+      </c>
+      <c r="D22">
+        <v>2509</v>
+      </c>
+      <c r="E22">
+        <v>1317</v>
+      </c>
+      <c r="F22">
+        <v>1542</v>
+      </c>
+      <c r="G22">
+        <v>741</v>
+      </c>
+      <c r="H22">
+        <v>7885</v>
+      </c>
+      <c r="I22">
+        <v>2429</v>
+      </c>
+      <c r="J22">
+        <v>43</v>
+      </c>
+      <c r="K22">
         <v>29</v>
       </c>
-      <c r="C16">
-        <f>((C$13+C$14+C$10)/C$15)*1000</f>
+      <c r="L22">
+        <v>455</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:O23" si="10">_xlfn.CEILING.MATH((C$46)/C$22)</f>
+        <v>517</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="10"/>
+        <v>517</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>516</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="10"/>
+        <v>337</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>314</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>3500</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4">
+        <f>(C$23*C$28)/($S$6*$S$21)+C$28*$S$17</f>
+        <v>6.3175371710037093E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24:O24" si="11">(D$23*D$28)/($S$6*$S$21)+D$28*$S$17</f>
+        <v>6.3175377236298305E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="11"/>
+        <v>6.305321665457822E-2</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="11"/>
+        <v>6.3053209499897095E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="11"/>
+        <v>6.3053247945270202E-2</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="11"/>
+        <v>1.9855915946240258E-2</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="11"/>
+        <v>1.9855911514744345E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="11"/>
+        <v>3.0929662597157084E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="11"/>
+        <v>2.8824653628523541E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="11"/>
+        <v>1.4884022482637243E-2</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="11"/>
+        <v>1.8361475603331817E-2</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="11"/>
+        <v>2.1412158071452952E-2</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5310793135210684E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5">
+        <f>(C$24*$S$16)+C$24</f>
+        <v>7.2651677466542663E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:O25" si="12">(D$24*$S$16)+D$24</f>
+        <v>7.2651683821743057E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="12"/>
+        <v>7.2511199152764952E-2</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="12"/>
+        <v>7.2511190924881661E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="12"/>
+        <v>7.2511235137060731E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="12"/>
+        <v>2.2834303338176296E-2</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="12"/>
+        <v>2.2834298241955996E-2</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="12"/>
+        <v>3.5569111986730649E-2</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="12"/>
+        <v>3.3148351672802071E-2</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="12"/>
+        <v>1.7116625855032829E-2</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="12"/>
+        <v>2.1115696943831589E-2</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="12"/>
+        <v>2.4623981782170894E-2</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="12"/>
+        <v>1.7607412105492288E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4">
+        <f>(C$23*C$28)/($S$7*$S$21)+C$28*$S$17</f>
+        <v>1.3600253632021875E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26:O26" si="13">(D$23*D$28)/($S$7*$S$21)+D$28*$S$17</f>
+        <v>1.3600254821703108E-3</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3573956363138366E-3</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3573954822894512E-3</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3573963099329002E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="13"/>
+        <v>4.2745374606489444E-4</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="13"/>
+        <v>4.2745365066463518E-4</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="13"/>
+        <v>6.6584690313324277E-4</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="13"/>
+        <v>6.205307378362707E-4</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="13"/>
+        <v>3.2041992844566286E-4</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="13"/>
+        <v>3.9528176646061556E-4</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="13"/>
+        <v>4.6095618070488996E-4</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="13"/>
+        <v>3.2960735221634115E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5">
+        <f>(C$26*$S$16)+C$26</f>
+        <v>1.5640291676825156E-3</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27:O27" si="14">(D$26*$S$16)+D$26</f>
+        <v>1.5640293044958573E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5610049817609121E-3</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5610048046328687E-3</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="14"/>
+        <v>1.5610057564228353E-3</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="14"/>
+        <v>4.9157180797462861E-4</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="14"/>
+        <v>4.9157169826433047E-4</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="14"/>
+        <v>7.6572393860322916E-4</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="14"/>
+        <v>7.1361034851171129E-4</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="14"/>
+        <v>3.6848291771251227E-4</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="14"/>
+        <v>4.5457403142970786E-4</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="14"/>
+        <v>5.3009960781062347E-4</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="14"/>
+        <v>3.7904845504879231E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <f>((C$19+C$20+C$16)/C$21)*1000</f>
         <v>309.2965998140433</v>
       </c>
-      <c r="D16">
-        <f t="shared" ref="D16:O16" si="2">((D$13+D$14+D$10)/D$15)*1000</f>
+      <c r="D28">
+        <f t="shared" ref="D28:O28" si="15">((D$19+D$20+D$16)/D$21)*1000</f>
         <v>309.29662686974171</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
+      <c r="E28">
+        <f t="shared" si="15"/>
         <v>309.29680103727839</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
+      <c r="F28">
+        <f t="shared" si="15"/>
         <v>309.29676594121031</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
+      <c r="G28">
+        <f t="shared" si="15"/>
         <v>309.29695452843157</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
+      <c r="H28">
+        <f t="shared" si="15"/>
         <v>310.23642992176559</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="I28">
+        <f t="shared" si="15"/>
         <v>310.23636068237744</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
+      <c r="J28">
+        <f t="shared" si="15"/>
         <v>232.30746434063545</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
+      <c r="K28">
+        <f t="shared" si="15"/>
         <v>232.35516570648841</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
+      <c r="L28">
+        <f t="shared" si="15"/>
         <v>232.55366362300776</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
+      <c r="M28">
+        <f t="shared" si="15"/>
         <v>15.491882991124445</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="2"/>
+      <c r="N28">
+        <f t="shared" si="15"/>
         <v>15.484966829302326</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="2"/>
+      <c r="O28">
+        <f t="shared" si="15"/>
         <v>15.501565617675411</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C29" s="1">
         <v>0.70907572509869254</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D29" s="1">
         <v>0.7061673232304515</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E29" s="1">
         <v>0.73244682019246499</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F29" s="1">
         <v>0.69194844608441586</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G29" s="1">
         <v>0.71426034574152264</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H29" s="1">
         <v>0.37274055372767956</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I29" s="1">
         <v>0.350147889375789</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J29" s="1">
         <v>0.59725072092314102</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K29" s="1">
         <v>0.57892481621616576</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L29" s="1">
         <v>0.2524286545143406</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M29" s="1">
         <v>0.34704852593957747</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N29" s="1">
         <v>0.38353627237534038</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O29" s="1">
         <v>0.26822262267047692</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C30">
         <v>38307910.600000001</v>
       </c>
-      <c r="D18">
+      <c r="D30">
         <v>48999907.200000003</v>
       </c>
-      <c r="E18">
+      <c r="E30">
         <v>85979866.599999994</v>
       </c>
-      <c r="F18">
+      <c r="F30">
         <v>69696300.200000003</v>
       </c>
-      <c r="G18">
+      <c r="G30">
         <v>24573314.199999999</v>
       </c>
-      <c r="H18">
+      <c r="H30">
         <v>1058134.6000000001</v>
       </c>
-      <c r="I18">
+      <c r="I30">
         <v>326386.3</v>
       </c>
-      <c r="J18">
+      <c r="J30">
         <v>6051.65</v>
       </c>
-      <c r="K18">
+      <c r="K30">
         <v>51933.2</v>
       </c>
-      <c r="L18">
+      <c r="L30">
         <v>44673.2</v>
       </c>
-      <c r="M18">
+      <c r="M30">
         <v>440.15000000000003</v>
       </c>
-      <c r="N18">
+      <c r="N30">
         <v>440.15000000000003</v>
       </c>
-      <c r="O18">
+      <c r="O30">
         <v>440.15000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C31">
         <v>209109.42242155806</v>
       </c>
-      <c r="D19">
+      <c r="D31">
         <v>267473.27465314552</v>
       </c>
-      <c r="E19">
+      <c r="E31">
         <v>469333.87812094903</v>
       </c>
-      <c r="F19">
+      <c r="F31">
         <v>380447.61124981643</v>
       </c>
-      <c r="G19">
+      <c r="G31">
         <v>134137.08706278205</v>
       </c>
-      <c r="H19">
+      <c r="H31">
         <v>10275.947468150182</v>
       </c>
-      <c r="I19">
+      <c r="I31">
         <v>3169.6614713514759</v>
       </c>
-      <c r="J19">
+      <c r="J31">
         <v>74.660120310206068</v>
       </c>
-      <c r="K19">
+      <c r="K31">
         <v>597.28096248164854</v>
       </c>
-      <c r="L19">
+      <c r="L31">
         <v>448.79999999999995</v>
       </c>
-      <c r="M19">
+      <c r="M31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N19">
+      <c r="N31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O19">
+      <c r="O31">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="C32">
         <v>5244033.6000000006</v>
       </c>
-      <c r="D20">
+      <c r="D32">
         <v>6214665.6000000006</v>
       </c>
-      <c r="E20">
+      <c r="E32">
         <v>3260812.8000000003</v>
       </c>
-      <c r="F20">
+      <c r="F32">
         <v>3818212.8000000003</v>
       </c>
-      <c r="G20">
+      <c r="G32">
         <v>1834012.8</v>
       </c>
-      <c r="H20">
+      <c r="H32">
         <v>6103814.4000000004</v>
       </c>
-      <c r="I20">
+      <c r="I32">
         <v>1880395.2000000002</v>
       </c>
-      <c r="J20">
+      <c r="J32">
         <v>52070.400000000001</v>
       </c>
-      <c r="K20">
+      <c r="K32">
         <v>32734.799999999999</v>
       </c>
-      <c r="L20">
+      <c r="L32">
         <v>263862</v>
       </c>
-      <c r="M20">
+      <c r="M32">
         <v>720</v>
       </c>
-      <c r="N20">
+      <c r="N32">
         <v>840</v>
       </c>
-      <c r="O20">
+      <c r="O32">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="C33">
         <v>-16509323.834779073</v>
       </c>
-      <c r="D21">
+      <c r="D33">
         <v>-23251676.771656141</v>
       </c>
-      <c r="E21">
+      <c r="E33">
         <v>-73894223.731166974</v>
       </c>
-      <c r="F21">
+      <c r="F33">
         <v>-54812576.016199328</v>
       </c>
-      <c r="G21">
+      <c r="G33">
         <v>-17213741.957866386</v>
       </c>
-      <c r="H21">
+      <c r="H33">
         <v>25323697.971828461</v>
       </c>
-      <c r="I21">
+      <c r="I33">
         <v>7801017.8745721597</v>
       </c>
-      <c r="J21">
+      <c r="J33">
         <v>219062.69278130546</v>
       </c>
-      <c r="K21">
+      <c r="K33">
         <v>87205.438924889531</v>
       </c>
-      <c r="L21">
+      <c r="L33">
         <v>1095768.1041362099</v>
       </c>
-      <c r="M21">
+      <c r="M33">
         <v>2654.992871833972</v>
       </c>
-      <c r="N21">
+      <c r="N33">
         <v>3174.5300723096707</v>
       </c>
-      <c r="O21">
+      <c r="O33">
         <v>4733.1416737367672</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
-        <f>($S$5*(C$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="C34">
+        <f t="shared" ref="C34:O34" si="16">($S$5*(C$31/POWER(1+$S$2,$S$5)))</f>
         <v>1045547.1121077903</v>
       </c>
-      <c r="D22">
-        <f>($S$5*(D$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="D34">
+        <f t="shared" si="16"/>
         <v>1337366.3732657277</v>
       </c>
-      <c r="E22">
-        <f>($S$5*(E$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="E34">
+        <f t="shared" si="16"/>
         <v>2346669.3906047451</v>
       </c>
-      <c r="F22">
-        <f>($S$5*(F$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="F34">
+        <f t="shared" si="16"/>
         <v>1902238.0562490821</v>
       </c>
-      <c r="G22">
-        <f>($S$5*(G$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="G34">
+        <f t="shared" si="16"/>
         <v>670685.43531391025</v>
       </c>
-      <c r="H22">
-        <f>($S$5*(H$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="H34">
+        <f t="shared" si="16"/>
         <v>51379.737340750908</v>
       </c>
-      <c r="I22">
-        <f>($S$5*(I$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="I34">
+        <f t="shared" si="16"/>
         <v>15848.307356757379</v>
       </c>
-      <c r="J22">
-        <f>($S$5*(J$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="J34">
+        <f t="shared" si="16"/>
         <v>373.30060155103035</v>
       </c>
-      <c r="K22">
-        <f>($S$5*(K$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="K34">
+        <f t="shared" si="16"/>
         <v>2986.4048124082428</v>
       </c>
-      <c r="L22">
-        <f>($S$5*(L$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="L34">
+        <f t="shared" si="16"/>
         <v>2244</v>
       </c>
-      <c r="M22">
-        <f>($S$5*(M$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="M34">
+        <f t="shared" si="16"/>
         <v>25.5</v>
       </c>
-      <c r="N22">
-        <f>($S$5*(N$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="N34">
+        <f t="shared" si="16"/>
         <v>25.5</v>
       </c>
-      <c r="O22">
-        <f>($S$5*(O$19/POWER(1+$S$2,$S$5)))</f>
+      <c r="O34">
+        <f t="shared" si="16"/>
         <v>25.5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="C23">
-        <f>($S$5*((12*C$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="C35">
+        <f t="shared" ref="C35:O35" si="17">($S$5*((12*C$46)/POWER(1+$S$2,$S$5)))</f>
         <v>65550420</v>
       </c>
-      <c r="D23">
-        <f>($S$5*((12*D$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="D35">
+        <f t="shared" si="17"/>
         <v>77683320</v>
       </c>
-      <c r="E23">
-        <f>($S$5*((12*E$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="E35">
+        <f t="shared" si="17"/>
         <v>40760160</v>
       </c>
-      <c r="F23">
-        <f>($S$5*((12*F$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="F35">
+        <f t="shared" si="17"/>
         <v>47727660</v>
       </c>
-      <c r="G23">
-        <f>($S$5*((12*G$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="G35">
+        <f t="shared" si="17"/>
         <v>22925160</v>
       </c>
-      <c r="H23">
-        <f>($S$5*((12*H$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="H35">
+        <f t="shared" si="17"/>
         <v>76297680</v>
       </c>
-      <c r="I23">
-        <f>($S$5*((12*I$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="I35">
+        <f t="shared" si="17"/>
         <v>23504940</v>
       </c>
-      <c r="J23">
-        <f>($S$5*((12*J$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="J35">
+        <f t="shared" si="17"/>
         <v>867840</v>
       </c>
-      <c r="K23">
-        <f>($S$5*((12*K$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="K35">
+        <f t="shared" si="17"/>
         <v>545580</v>
       </c>
-      <c r="L23">
-        <f>($S$5*((12*L$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="L35">
+        <f t="shared" si="17"/>
         <v>4397700</v>
       </c>
-      <c r="M23">
-        <f>($S$5*((12*M$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="M35">
+        <f t="shared" si="17"/>
         <v>180000</v>
       </c>
-      <c r="N23">
-        <f>($S$5*((12*N$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="N35">
+        <f t="shared" si="17"/>
         <v>210000</v>
       </c>
-      <c r="O23">
-        <f>($S$5*((12*O$28)/POWER(1+$S$2,$S$5)))</f>
+      <c r="O35">
+        <f t="shared" si="17"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>30809</v>
+      </c>
+      <c r="D36">
+        <v>39408</v>
+      </c>
+      <c r="E36">
+        <v>69149</v>
+      </c>
+      <c r="F36">
+        <v>56053</v>
+      </c>
+      <c r="G36">
+        <v>19763</v>
+      </c>
+      <c r="H36">
+        <v>1514</v>
+      </c>
+      <c r="I36">
+        <v>467</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+      <c r="K36">
+        <v>88</v>
+      </c>
+      <c r="L36">
+        <v>88</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <f>_xlfn.CEILING.MATH((C$46)/C$36)</f>
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:O37" si="18">_xlfn.CEILING.MATH((D$46)/D$36)</f>
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="18"/>
+        <v>840</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="18"/>
+        <v>839</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="18"/>
+        <v>1315</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="18"/>
+        <v>104</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="18"/>
+        <v>833</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="18"/>
+        <v>3500</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="18"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="4">
+        <f>(C$42*C$37)/($S$6*$T$21)+C$42*$S$17</f>
+        <v>9.2938518656722274E-4</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:O38" si="19">(D$42*D$37)/($S$6*$T$21)+D$42*$S$17</f>
+        <v>8.5235124204927429E-4</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="19"/>
+        <v>2.6229744721208717E-4</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="19"/>
+        <v>3.90806146801173E-4</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="19"/>
+        <v>5.1896865613105918E-4</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="19"/>
+        <v>2.1558171624760116E-2</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="19"/>
+        <v>2.1532514159309006E-2</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="19"/>
+        <v>2.5310624701526455E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="19"/>
+        <v>2.0069637875719014E-3</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="19"/>
+        <v>1.6033933244287667E-2</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="19"/>
+        <v>3.8528921058774575E-3</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="19"/>
+        <v>4.4943371095622605E-3</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="19"/>
+        <v>6.4186721206166654E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" ref="C39:O39" si="20">(C$38*$S$16)+C$38</f>
+        <v>1.0687929645523061E-3</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="20"/>
+        <v>9.8020392835666543E-4</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="20"/>
+        <v>3.0164206429390025E-4</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="20"/>
+        <v>4.4942706882134892E-4</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="20"/>
+        <v>5.9681395455071806E-4</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="20"/>
+        <v>2.4791897368474133E-2</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="20"/>
+        <v>2.4762391283205357E-2</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="20"/>
+        <v>2.9107218406755425E-2</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="20"/>
+        <v>2.3080083557076867E-3</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="20"/>
+        <v>1.8439023230930815E-2</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="20"/>
+        <v>4.4308259217590764E-3</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="20"/>
+        <v>5.1684876759965992E-3</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="20"/>
+        <v>7.3814729387091651E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="4">
+        <f>(C$42*C$37)/($S$7*$T$21)+C$42*$S$17</f>
+        <v>2.0007597766377711E-5</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" ref="D40:O40" si="21">(D$42*D$37)/($S$7*$T$21)+D$42*$S$17</f>
+        <v>1.8349228127449656E-5</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="21"/>
+        <v>5.6466811552602102E-6</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="21"/>
+        <v>8.4131878825252511E-6</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="21"/>
+        <v>1.1172241902821414E-5</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="21"/>
+        <v>4.6409952803303027E-4</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="21"/>
+        <v>4.6354717981845773E-4</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="21"/>
+        <v>5.4488150399119447E-4</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="21"/>
+        <v>4.3205470426895101E-5</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="21"/>
+        <v>3.4517495178674839E-4</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="21"/>
+        <v>8.2944205057084157E-5</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="21"/>
+        <v>9.6753090553076431E-5</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="21"/>
+        <v>1.3817974704105322E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5">
+        <f>(C$40*$S$16)+C$40</f>
+        <v>2.3008737431334368E-5</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" ref="D41:O41" si="22">(D$40*$S$16)+D$40</f>
+        <v>2.1101612346567106E-5</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="22"/>
+        <v>6.4936833285492414E-6</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="22"/>
+        <v>9.675166064904039E-6</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="22"/>
+        <v>1.2848078188244626E-5</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="22"/>
+        <v>5.337144572379848E-4</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="22"/>
+        <v>5.3307925679122641E-4</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="22"/>
+        <v>6.2661372958987358E-4</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="22"/>
+        <v>4.9686290990929369E-5</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="22"/>
+        <v>3.9695119455476064E-4</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="22"/>
+        <v>9.5385835815646778E-5</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="22"/>
+        <v>1.112660541360379E-4</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="22"/>
+        <v>1.5890670909721121E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
-        <f>((C$21+C$22+C$18)/C$23)*1000</f>
+      <c r="C42">
+        <f>((C$33+C$34+C$30)/C$35)*1000</f>
         <v>348.49713971823093</v>
       </c>
-      <c r="D24">
-        <f t="shared" ref="D24:O24" si="3">((D$21+D$22+D$18)/D$23)*1000</f>
+      <c r="D42">
+        <f t="shared" ref="D42:O42" si="23">((D$33+D$34+D$30)/D$35)*1000</f>
         <v>348.66682836945677</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
+      <c r="E42">
+        <f t="shared" si="23"/>
         <v>354.07889123687858</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
+      <c r="F42">
+        <f t="shared" si="23"/>
         <v>351.70302168699993</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
+      <c r="G42">
+        <f t="shared" si="23"/>
         <v>350.28142344252012</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
+      <c r="H42">
+        <f t="shared" si="23"/>
         <v>346.44844127854498</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
+      <c r="I42">
+        <f t="shared" si="23"/>
         <v>346.44855430087955</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
+      <c r="J42">
+        <f t="shared" si="23"/>
         <v>259.82628524020151</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
+      <c r="K42">
+        <f t="shared" si="23"/>
         <v>260.50266457219431</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
+      <c r="L42">
+        <f t="shared" si="23"/>
         <v>259.8370293872274</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
+      <c r="M42">
+        <f t="shared" si="23"/>
         <v>17.336904843522067</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
+      <c r="N42">
+        <f t="shared" si="23"/>
         <v>17.334190820522242</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
+      <c r="O42">
+        <f t="shared" si="23"/>
         <v>17.329305579122554</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C43" s="1">
         <v>-0.12539210056043426</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D43" s="1">
         <v>-0.1463128281907895</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E43" s="1">
         <v>-0.4057865150599026</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F43" s="1">
         <v>-0.33767506633099342</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G43" s="1">
         <v>-0.27414262097829023</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H43" s="1">
         <v>5.7583470667209768</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I43" s="1">
         <v>5.7511350328774284</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J43" s="1">
         <v>8.5918880777432829</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K43" s="1">
         <v>0.5495565728326508</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L43" s="1">
         <v>5.8960699035483888</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M43" s="1">
         <v>1.6108299066400402</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N43" s="1">
         <v>1.8874019147516958</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O43" s="1">
         <v>2.7108985710346958</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+    <row r="44" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="45" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
-      <c r="C27">
+      <c r="C45">
         <v>5244033.6000000006</v>
       </c>
-      <c r="D27">
+      <c r="D45">
         <v>6214665.6000000006</v>
       </c>
-      <c r="E27">
+      <c r="E45">
         <v>3260812.8000000003</v>
       </c>
-      <c r="F27">
+      <c r="F45">
         <v>3818212.8000000003</v>
       </c>
-      <c r="G27">
+      <c r="G45">
         <v>1834012.8</v>
       </c>
-      <c r="H27">
+      <c r="H45">
         <v>6103814.4000000004</v>
       </c>
-      <c r="I27">
+      <c r="I45">
         <v>1880395.2000000002</v>
       </c>
-      <c r="J27">
+      <c r="J45">
         <v>52070.400000000001</v>
       </c>
-      <c r="K27">
+      <c r="K45">
         <v>32734.799999999999</v>
       </c>
-      <c r="L27">
+      <c r="L45">
         <v>263862</v>
       </c>
-      <c r="M27">
+      <c r="M45">
         <v>720</v>
       </c>
-      <c r="N27">
+      <c r="N45">
         <v>840</v>
       </c>
-      <c r="O27">
+      <c r="O45">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>22</v>
       </c>
-      <c r="C28">
+      <c r="C46">
         <v>1092507</v>
       </c>
-      <c r="D28">
+      <c r="D46">
         <v>1294722</v>
       </c>
-      <c r="E28">
+      <c r="E46">
         <v>679336</v>
       </c>
-      <c r="F28">
+      <c r="F46">
         <v>795461</v>
       </c>
-      <c r="G28">
+      <c r="G46">
         <v>382086</v>
       </c>
-      <c r="H28">
+      <c r="H46">
         <v>1271628</v>
       </c>
-      <c r="I28">
+      <c r="I46">
         <v>391749</v>
       </c>
-      <c r="J28">
+      <c r="J46">
         <v>14464</v>
       </c>
-      <c r="K28">
+      <c r="K46">
         <v>9093</v>
       </c>
-      <c r="L28">
+      <c r="L46">
         <v>73295</v>
       </c>
-      <c r="M28">
+      <c r="M46">
         <v>3000</v>
       </c>
-      <c r="N28">
+      <c r="N46">
         <v>3500</v>
       </c>
-      <c r="O28">
+      <c r="O46">
         <v>5000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>23</v>
       </c>
-      <c r="C29">
+      <c r="C47">
         <v>400</v>
       </c>
-      <c r="D29">
+      <c r="D47">
         <v>400</v>
       </c>
-      <c r="E29">
+      <c r="E47">
         <v>400</v>
       </c>
-      <c r="F29">
+      <c r="F47">
         <v>400</v>
       </c>
-      <c r="G29">
+      <c r="G47">
         <v>400</v>
       </c>
-      <c r="H29">
+      <c r="H47">
         <v>400</v>
       </c>
-      <c r="I29">
+      <c r="I47">
         <v>400</v>
       </c>
-      <c r="J29">
+      <c r="J47">
         <v>300</v>
       </c>
-      <c r="K29">
+      <c r="K47">
         <v>300</v>
       </c>
-      <c r="L29">
+      <c r="L47">
         <v>300</v>
       </c>
-      <c r="M29">
+      <c r="M47">
         <v>20</v>
       </c>
-      <c r="N29">
+      <c r="N47">
         <v>20</v>
       </c>
-      <c r="O29">
+      <c r="O47">
         <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>0.5</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+      <c r="H48">
+        <v>0.8</v>
+      </c>
+      <c r="I48">
+        <v>0.8</v>
+      </c>
+      <c r="J48">
+        <v>0.75</v>
+      </c>
+      <c r="K48">
+        <v>0.8</v>
+      </c>
+      <c r="L48">
+        <v>0.8</v>
+      </c>
+      <c r="M48">
+        <v>0.3</v>
+      </c>
+      <c r="N48">
+        <v>0.3</v>
+      </c>
+      <c r="O48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="A30:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project Wing/Model/Opex.xlsx
+++ b/Project Wing/Model/Opex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Exocoetidae\Project Wing\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7693652-F285-4DA5-AD50-2B87D5481D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A15064-D4D0-4184-8B47-4DE6E25E966C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1425" windowWidth="20055" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="780" windowWidth="21630" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>UAV-Based</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Probability of Usage</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -4702,18 +4699,18 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="0"/>
+          <c:idx val="10"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10:$B$10</c:f>
+              <c:f>Sheet1!$A$12:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>UAV-Based</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Price per GB</c:v>
+                  <c:v>Price per Minute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4780,180 +4777,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2.9725216712703242E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.726060671287572E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3815176232698053E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2492778109303016E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6593613862163657E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7812575702074988E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7812574812410496E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6905860007375927E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0126723105187362E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0864609174458822E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8635890614584708E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0060549507553105E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.1476917960938513E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-373F-4137-A878-46214C75BCD8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$12:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>UAV-Based</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Price per Minute</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Mopani</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vhembe</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Waterberg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Chris-Hani</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Frances Baard</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soweto</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Khayelitsha</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Lulekani</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Zeerust</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duduza</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hlankomo</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Mandileni</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gon’on’o</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$C$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.1995892989368074E-4</c:v>
+                  <c:v>2.1330595326245383E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9343014170109282E-4</c:v>
+                  <c:v>1.9562009446739519E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0217724417140254E-5</c:v>
+                  <c:v>6.014514961142684E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3447087548208107E-4</c:v>
+                  <c:v>8.9647250321387383E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7861181587745602E-4</c:v>
+                  <c:v>1.1907454391830402E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7899435931351362E-4</c:v>
+                  <c:v>9.9790491523648684E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7899434399151409E-4</c:v>
+                  <c:v>9.9790488331565432E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5733419803575709E-4</c:v>
+                  <c:v>2.524447326785857E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9107134236711569E-4</c:v>
+                  <c:v>2.1595979448972365E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5933493578234636E-4</c:v>
+                  <c:v>7.4861444954655491E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4327346021919288E-4</c:v>
+                  <c:v>1.4775782007306429E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1705771556961389E-4</c:v>
+                  <c:v>1.7235257185653795E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4327346021919277E-4</c:v>
+                  <c:v>5.5409182527399094E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4966,18 +4831,18 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="23"/>
-          <c:order val="2"/>
+          <c:idx val="25"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$B$25</c:f>
+              <c:f>Sheet1!$A$27:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>LC-Based</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Price per GB</c:v>
+                  <c:v>Price per Minute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5043,179 +4908,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$O$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>7.2651677466542663E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2651683821743057E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2511199152764952E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2511190924881661E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2511235137060731E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2834303338176296E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2834298241955996E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5569111986730649E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3148351672802071E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7116625855032829E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1115696943831589E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4623981782170894E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7607412105492288E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-373F-4137-A878-46214C75BCD8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="25"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$27:$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LC-Based</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Price per Minute</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Mopani</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vhembe</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Waterberg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Chris-Hani</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Frances Baard</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soweto</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Khayelitsha</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Lulekani</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Zeerust</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duduza</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hlankomo</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Mandileni</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gon’on’o</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$C$27:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.5640291676825156E-3</c:v>
+                  <c:v>1.0426861117883438E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5640293044958573E-3</c:v>
+                  <c:v>1.0426862029972381E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5610049817609121E-3</c:v>
+                  <c:v>1.0406699878406079E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5610048046328687E-3</c:v>
+                  <c:v>1.0406698697552459E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5610057564228353E-3</c:v>
+                  <c:v>1.0406705042818902E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9157180797462861E-4</c:v>
+                  <c:v>1.0241079332804761E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9157169826433047E-4</c:v>
+                  <c:v>1.024107704717355E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6572393860322916E-4</c:v>
+                  <c:v>2.5524131286774306E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1361034851171129E-4</c:v>
+                  <c:v>2.2300323390990976E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6848291771251227E-4</c:v>
+                  <c:v>7.6767274523440072E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5457403142970786E-4</c:v>
+                  <c:v>1.5152467714323596E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3009960781062347E-4</c:v>
+                  <c:v>1.7669986927020782E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7904845504879231E-4</c:v>
+                  <c:v>4.7381056881099035E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5228,18 +4962,18 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="37"/>
-          <c:order val="4"/>
+          <c:idx val="39"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$39:$B$39</c:f>
+              <c:f>Sheet1!$A$41:$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Hotspot</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Price per GB</c:v>
+                  <c:v>Price per Minute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5306,180 +5040,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$39:$O$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.0687929645523061E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8020392835666543E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0164206429390025E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4942706882134892E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9681395455071806E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4791897368474133E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4762391283205357E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9107218406755425E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3080083557076867E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8439023230930815E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.4308259217590764E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.1684876759965992E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.3814729387091651E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-373F-4137-A878-46214C75BCD8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="39"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$B$41</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Hotspot</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Price per Minute</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:prstDash val="lgDashDotDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Mopani</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vhembe</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Waterberg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Chris-Hani</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Frances Baard</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Soweto</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Khayelitsha</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Lulekani</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Zeerust</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Duduza</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hlankomo</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Mandileni</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gon’on’o</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$C$41:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.3008737431334368E-5</c:v>
+                  <c:v>1.5339158287556244E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1101612346567106E-5</c:v>
+                  <c:v>1.406774156437807E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4936833285492414E-6</c:v>
+                  <c:v>4.3291222190328273E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.675166064904039E-6</c:v>
+                  <c:v>6.4501107099360262E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2848078188244626E-5</c:v>
+                  <c:v>8.5653854588297508E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.337144572379848E-4</c:v>
+                  <c:v>1.1119051192458019E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3307925679122641E-4</c:v>
+                  <c:v>1.1105817849817218E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2661372958987358E-4</c:v>
+                  <c:v>2.0887124319662457E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9686290990929369E-5</c:v>
+                  <c:v>1.5526965934665427E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9695119455476064E-4</c:v>
+                  <c:v>8.2698165532241793E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5385835815646778E-5</c:v>
+                  <c:v>3.1795278605215595E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.112660541360379E-4</c:v>
+                  <c:v>3.7088684712012635E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5890670909721121E-4</c:v>
+                  <c:v>1.9863338637151401E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5502,6 +5104,465 @@
         <c:smooth val="0"/>
         <c:axId val="591211775"/>
         <c:axId val="1419729631"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$10:$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>UAV-Based</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Price per GB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1:$O$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>Mopani</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Vhembe</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Waterberg</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Chris-Hani</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Frances Baard</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Soweto</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Khayelitsha</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Lulekani</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Zeerust</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Duduza</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Hlankomo</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Mandileni</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Gon’on’o</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$10:$O$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>9.9084055709010813E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.086868904291906E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.7938392077566016E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.1642593697676721E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.5312046207212182E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.6354292836791648E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.6354291354017495E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.11726465001843982</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.1003168077629684</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.4774348624098041E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.68635890614584694</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.80060549507553103</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.25738458980469253</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-373F-4137-A878-46214C75BCD8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="23"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$25:$B$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>LC-Based</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Price per GB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1:$O$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>Mopani</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Vhembe</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Waterberg</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Chris-Hani</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Frances Baard</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Soweto</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Khayelitsha</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Lulekani</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Zeerust</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Duduza</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Hlankomo</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Mandileni</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Gon’on’o</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$25:$O$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>0.48434451644361776</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.48434455881162036</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.48340799435176629</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.48340793949921101</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.48340823424707158</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.7571465287867286E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.7571454670741656E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.11856370662243548</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.10358859897750648</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.565963719798506E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.7038565647943863</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.82079939273902991</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.2200926513186536</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000017-373F-4137-A878-46214C75BCD8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="37"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$39:$B$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hotspot</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Price per GB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FFC000"/>
+                    </a:solidFill>
+                    <a:prstDash val="lgDashDotDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1:$O$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>Mopani</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Vhembe</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Waterberg</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Chris-Hani</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Frances Baard</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Soweto</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Khayelitsha</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Lulekani</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Zeerust</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Duduza</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Hlankomo</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Mandileni</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Gon’on’o</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$39:$O$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>7.1252864303487078E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.5346928557111035E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0109470952926686E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.9961804588089927E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.9787596970047873E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.1649786184321103E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.1588315173344494E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.7024061355851399E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.2125261115865199E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.8414631731105861E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.14769419739196921</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.17228292253321995</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9.2268411733864561E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000025-373F-4137-A878-46214C75BCD8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="591211775"/>
@@ -5617,7 +5678,6 @@
         <c:axId val="1419729631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10156,12 +10216,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="AO11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10649,56 +10710,56 @@
         <v>38</v>
       </c>
       <c r="C10" s="4">
-        <f>(C$14*C$9)/($S$6*$R$21*C$48)+C$14*$S$17</f>
-        <v>2.9725216712703242E-2</v>
+        <f>(C$14*C$9)/($S$6*$R$21*C$48*C$49)+C$14*$S$17</f>
+        <v>9.9084055709010813E-2</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:O10" si="3">(D$14*D$9)/($S$6*$R$21*D$48)+D$14*$S$17</f>
-        <v>2.726060671287572E-2</v>
+        <f t="shared" ref="D10:O10" si="3">(D$14*D$9)/($S$6*$R$21*D$48*D$49)+D$14*$S$17</f>
+        <v>9.086868904291906E-2</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="3"/>
-        <v>8.3815176232698053E-3</v>
+        <v>2.7938392077566016E-2</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="3"/>
-        <v>1.2492778109303016E-2</v>
+        <v>4.1642593697676721E-2</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>1.6593613862163657E-2</v>
+        <v>5.5312046207212182E-2</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>2.7812575702074988E-2</v>
+        <v>4.6354292836791648E-2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>2.7812574812410496E-2</v>
+        <v>4.6354291354017495E-2</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="3"/>
-        <v>4.6905860007375927E-2</v>
+        <v>0.11726465001843982</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="3"/>
-        <v>4.0126723105187362E-2</v>
+        <v>0.1003168077629684</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="3"/>
-        <v>2.0864609174458822E-2</v>
+        <v>3.4774348624098041E-2</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="3"/>
-        <v>6.8635890614584708E-2</v>
+        <v>0.68635890614584694</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="3"/>
-        <v>8.0060549507553105E-2</v>
+        <v>0.80060549507553103</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="3"/>
-        <v>5.1476917960938513E-2</v>
+        <v>0.25738458980469253</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -10708,55 +10769,55 @@
       </c>
       <c r="C11" s="5">
         <f>(C$10*$S$16)+C$10</f>
-        <v>3.4183999219608727E-2</v>
+        <v>0.11394666406536244</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ref="D11:O11" si="4">(D$10*$S$16)+D$10</f>
-        <v>3.1349697719807078E-2</v>
+        <v>0.10449899239935692</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="4"/>
-        <v>9.638745266760276E-3</v>
+        <v>3.2129150889200916E-2</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>1.4366694825698467E-2</v>
+        <v>4.7888982752328231E-2</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="4"/>
-        <v>1.9082655941488204E-2</v>
+        <v>6.3608853138294008E-2</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="4"/>
-        <v>3.1984462057386233E-2</v>
+        <v>5.3307436762310395E-2</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="4"/>
-        <v>3.198446103427207E-2</v>
+        <v>5.3307435057120121E-2</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="4"/>
-        <v>5.3941739008482315E-2</v>
+        <v>0.13485434752120579</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="4"/>
-        <v>4.6145731570965465E-2</v>
+        <v>0.11536432892741366</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="4"/>
-        <v>2.3994300550627644E-2</v>
+        <v>3.9990500917712744E-2</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="4"/>
-        <v>7.8931274206772414E-2</v>
+        <v>0.78931274206772395</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="4"/>
-        <v>9.2069631933686072E-2</v>
+        <v>0.92069631933686069</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="4"/>
-        <v>5.9198455655079293E-2</v>
+        <v>0.29599227827539643</v>
       </c>
       <c r="P11" t="s">
         <v>42</v>
@@ -10768,56 +10829,56 @@
         <v>41</v>
       </c>
       <c r="C12" s="4">
-        <f>(C$14*C$9)/($S$7*$R$21)+C$14*$S$17</f>
-        <v>3.1995892989368074E-4</v>
+        <f>(C$14*C$9)/($S$7*$R$21*C$48*C$49)+C$14*$S$17</f>
+        <v>2.1330595326245383E-3</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:O12" si="5">(D$14*D$9)/($S$7*$R$21)+D$14*$S$17</f>
-        <v>2.9343014170109282E-4</v>
+        <f t="shared" ref="D12:O12" si="5">(D$14*D$9)/($S$7*$R$21*D$48*D$49)+D$14*$S$17</f>
+        <v>1.9562009446739519E-3</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="5"/>
-        <v>9.0217724417140254E-5</v>
+        <v>6.014514961142684E-4</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="5"/>
-        <v>1.3447087548208107E-4</v>
+        <v>8.9647250321387383E-4</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="5"/>
-        <v>1.7861181587745602E-4</v>
+        <v>1.1907454391830402E-3</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="5"/>
-        <v>4.7899435931351362E-4</v>
+        <v>9.9790491523648684E-4</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="5"/>
-        <v>4.7899434399151409E-4</v>
+        <v>9.9790488331565432E-4</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>7.5733419803575709E-4</v>
+        <v>2.524447326785857E-3</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="5"/>
-        <v>6.9107134236711569E-4</v>
+        <v>2.1595979448972365E-3</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="5"/>
-        <v>3.5933493578234636E-4</v>
+        <v>7.4861444954655491E-4</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="5"/>
-        <v>4.4327346021919288E-4</v>
+        <v>1.4775782007306429E-2</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="5"/>
-        <v>5.1705771556961389E-4</v>
+        <v>1.7235257185653795E-2</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="5"/>
-        <v>4.4327346021919277E-4</v>
+        <v>5.5409182527399094E-3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -10827,55 +10888,55 @@
       </c>
       <c r="C13" s="5">
         <f>(C$12*$S$16)+C$12</f>
-        <v>3.6795276937773286E-4</v>
+        <v>2.453018462518219E-3</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" ref="D13:O13" si="6">(D$12*$S$16)+D$12</f>
-        <v>3.3744466295625674E-4</v>
+        <v>2.2496310863750445E-3</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="6"/>
-        <v>1.0375038307971129E-4</v>
+        <v>6.9166922053140868E-4</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="6"/>
-        <v>1.5464150680439322E-4</v>
+        <v>1.0309433786959549E-3</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="6"/>
-        <v>2.0540358825907443E-4</v>
+        <v>1.3693572550604962E-3</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="6"/>
-        <v>5.5084351321054066E-4</v>
+        <v>1.1475906525219598E-3</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="6"/>
-        <v>5.5084349559024123E-4</v>
+        <v>1.1475906158130026E-3</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="6"/>
-        <v>8.7093432774112067E-4</v>
+        <v>2.9031144258037356E-3</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="6"/>
-        <v>7.9473204372218303E-4</v>
+        <v>2.483537636631822E-3</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="6"/>
-        <v>4.1323517614969831E-4</v>
+        <v>8.6090661697853818E-4</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="6"/>
-        <v>5.0976447925207185E-4</v>
+        <v>1.6992149308402392E-2</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="6"/>
-        <v>5.9461637290505597E-4</v>
+        <v>1.9820545763501864E-2</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="6"/>
-        <v>5.0976447925207163E-4</v>
+        <v>6.3720559906508961E-3</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -10992,7 +11053,7 @@
       </c>
       <c r="S15">
         <f>AVERAGE(C10:O10,C24:O24,C38:O38)</f>
-        <v>2.685272737083463E-2</v>
+        <v>0.17753167147880961</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -11441,56 +11502,56 @@
         <v>38</v>
       </c>
       <c r="C24" s="4">
-        <f>(C$23*C$28)/($S$6*$S$21)+C$28*$S$17</f>
-        <v>6.3175371710037093E-2</v>
+        <f>(C$23*C$28)/($S$6*$S$21*C$48*C$49)+C$28*$S$17</f>
+        <v>0.42116914473358064</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:O24" si="11">(D$23*D$28)/($S$6*$S$21)+D$28*$S$17</f>
-        <v>6.3175377236298305E-2</v>
+        <f t="shared" ref="D24:O24" si="11">(D$23*D$28)/($S$6*$S$21*D$48*D$49)+D$28*$S$17</f>
+        <v>0.42116918157532207</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="11"/>
-        <v>6.305321665457822E-2</v>
+        <v>0.4203547776971881</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="11"/>
-        <v>6.3053209499897095E-2</v>
+        <v>0.42035472999931395</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="11"/>
-        <v>6.3053247945270202E-2</v>
+        <v>0.42035498630180135</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="11"/>
-        <v>1.9855915946240258E-2</v>
+        <v>4.1366491554667206E-2</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="11"/>
-        <v>1.9855911514744345E-2</v>
+        <v>4.1366482322384046E-2</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="11"/>
-        <v>3.0929662597157084E-2</v>
+        <v>0.10309887532385695</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="11"/>
-        <v>2.8824653628523541E-2</v>
+        <v>9.0077042589136069E-2</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="11"/>
-        <v>1.4884022482637243E-2</v>
+        <v>3.1008380172160923E-2</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="11"/>
-        <v>1.8361475603331817E-2</v>
+        <v>0.61204918677772724</v>
       </c>
       <c r="N24" s="4">
         <f t="shared" si="11"/>
-        <v>2.1412158071452952E-2</v>
+        <v>0.71373860238176512</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="11"/>
-        <v>1.5310793135210684E-2</v>
+        <v>0.19138491419013356</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -11500,55 +11561,55 @@
       </c>
       <c r="C25" s="5">
         <f>(C$24*$S$16)+C$24</f>
-        <v>7.2651677466542663E-2</v>
+        <v>0.48434451644361776</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" ref="D25:O25" si="12">(D$24*$S$16)+D$24</f>
-        <v>7.2651683821743057E-2</v>
+        <v>0.48434455881162036</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="12"/>
-        <v>7.2511199152764952E-2</v>
+        <v>0.48340799435176629</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="12"/>
-        <v>7.2511190924881661E-2</v>
+        <v>0.48340793949921101</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="12"/>
-        <v>7.2511235137060731E-2</v>
+        <v>0.48340823424707158</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="12"/>
-        <v>2.2834303338176296E-2</v>
+        <v>4.7571465287867286E-2</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="12"/>
-        <v>2.2834298241955996E-2</v>
+        <v>4.7571454670741656E-2</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="12"/>
-        <v>3.5569111986730649E-2</v>
+        <v>0.11856370662243548</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="12"/>
-        <v>3.3148351672802071E-2</v>
+        <v>0.10358859897750648</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="12"/>
-        <v>1.7116625855032829E-2</v>
+        <v>3.565963719798506E-2</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="12"/>
-        <v>2.1115696943831589E-2</v>
+        <v>0.7038565647943863</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="12"/>
-        <v>2.4623981782170894E-2</v>
+        <v>0.82079939273902991</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="12"/>
-        <v>1.7607412105492288E-2</v>
+        <v>0.2200926513186536</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -11557,56 +11618,56 @@
         <v>41</v>
       </c>
       <c r="C26" s="4">
-        <f>(C$23*C$28)/($S$7*$S$21)+C$28*$S$17</f>
-        <v>1.3600253632021875E-3</v>
+        <f>(C$23*C$28)/($S$7*$S$21*C$48*C$49)+C$28*$S$17</f>
+        <v>9.0668357546812503E-3</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" ref="D26:O26" si="13">(D$23*D$28)/($S$7*$S$21)+D$28*$S$17</f>
-        <v>1.3600254821703108E-3</v>
+        <f t="shared" ref="D26:O26" si="13">(D$23*D$28)/($S$7*$S$21*D$48*D$49)+D$28*$S$17</f>
+        <v>9.0668365478020711E-3</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="13"/>
-        <v>1.3573956363138366E-3</v>
+        <v>9.0493042420922432E-3</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="13"/>
-        <v>1.3573954822894512E-3</v>
+        <v>9.0493032152630087E-3</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="13"/>
-        <v>1.3573963099329002E-3</v>
+        <v>9.0493087328860009E-3</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="13"/>
-        <v>4.2745374606489444E-4</v>
+        <v>8.9052863763519673E-4</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="13"/>
-        <v>4.2745365066463518E-4</v>
+        <v>8.9052843888465661E-4</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="13"/>
-        <v>6.6584690313324277E-4</v>
+        <v>2.2194896771108091E-3</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="13"/>
-        <v>6.205307378362707E-4</v>
+        <v>1.9391585557383458E-3</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="13"/>
-        <v>3.2041992844566286E-4</v>
+        <v>6.6754151759513105E-4</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="13"/>
-        <v>3.9528176646061556E-4</v>
+        <v>1.3176058882020518E-2</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="13"/>
-        <v>4.6095618070488996E-4</v>
+        <v>1.5365206023496331E-2</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="13"/>
-        <v>3.2960735221634115E-4</v>
+        <v>4.120091902704264E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -11616,55 +11677,55 @@
       </c>
       <c r="C27" s="5">
         <f>(C$26*$S$16)+C$26</f>
-        <v>1.5640291676825156E-3</v>
+        <v>1.0426861117883438E-2</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" ref="D27:O27" si="14">(D$26*$S$16)+D$26</f>
-        <v>1.5640293044958573E-3</v>
+        <v>1.0426862029972381E-2</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="14"/>
-        <v>1.5610049817609121E-3</v>
+        <v>1.0406699878406079E-2</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="14"/>
-        <v>1.5610048046328687E-3</v>
+        <v>1.0406698697552459E-2</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="14"/>
-        <v>1.5610057564228353E-3</v>
+        <v>1.0406705042818902E-2</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="14"/>
-        <v>4.9157180797462861E-4</v>
+        <v>1.0241079332804761E-3</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="14"/>
-        <v>4.9157169826433047E-4</v>
+        <v>1.024107704717355E-3</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="14"/>
-        <v>7.6572393860322916E-4</v>
+        <v>2.5524131286774306E-3</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="14"/>
-        <v>7.1361034851171129E-4</v>
+        <v>2.2300323390990976E-3</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="14"/>
-        <v>3.6848291771251227E-4</v>
+        <v>7.6767274523440072E-4</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="14"/>
-        <v>4.5457403142970786E-4</v>
+        <v>1.5152467714323596E-2</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="14"/>
-        <v>5.3009960781062347E-4</v>
+        <v>1.7669986927020782E-2</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="14"/>
-        <v>3.7904845504879231E-4</v>
+        <v>4.7381056881099035E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -12177,56 +12238,56 @@
         <v>38</v>
       </c>
       <c r="C38" s="4">
-        <f>(C$42*C$37)/($S$6*$T$21)+C$42*$S$17</f>
-        <v>9.2938518656722274E-4</v>
+        <f>(C$42*C$37)/($S$6*$T$21*C$48*C$49)+C$42*$S$17</f>
+        <v>6.1959012437814848E-3</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" ref="D38:O38" si="19">(D$42*D$37)/($S$6*$T$21)+D$42*$S$17</f>
-        <v>8.5235124204927429E-4</v>
+        <f t="shared" ref="D38:O38" si="19">(D$42*D$37)/($S$6*$T$21*D$48*D$49)+D$42*$S$17</f>
+        <v>5.6823416136618293E-3</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="19"/>
-        <v>2.6229744721208717E-4</v>
+        <v>1.7486496480805813E-3</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="19"/>
-        <v>3.90806146801173E-4</v>
+        <v>2.6053743120078199E-3</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="19"/>
-        <v>5.1896865613105918E-4</v>
+        <v>3.4597910408737283E-3</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="19"/>
-        <v>2.1558171624760116E-2</v>
+        <v>4.4912857551583571E-2</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="19"/>
-        <v>2.1532514159309006E-2</v>
+        <v>4.4859404498560428E-2</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="19"/>
-        <v>2.5310624701526455E-2</v>
+        <v>8.4368749005088173E-2</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="19"/>
-        <v>2.0069637875719014E-3</v>
+        <v>6.2717618361621914E-3</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="19"/>
-        <v>1.6033933244287667E-2</v>
+        <v>3.3404027592265968E-2</v>
       </c>
       <c r="M38" s="4">
         <f t="shared" si="19"/>
-        <v>3.8528921058774575E-3</v>
+        <v>0.12842973686258191</v>
       </c>
       <c r="N38" s="4">
         <f t="shared" si="19"/>
-        <v>4.4943371095622605E-3</v>
+        <v>0.14981123698540866</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="19"/>
-        <v>6.4186721206166654E-3</v>
+        <v>8.0233401507708316E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -12236,55 +12297,55 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" ref="C39:O39" si="20">(C$38*$S$16)+C$38</f>
-        <v>1.0687929645523061E-3</v>
+        <v>7.1252864303487078E-3</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="20"/>
-        <v>9.8020392835666543E-4</v>
+        <v>6.5346928557111035E-3</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="20"/>
-        <v>3.0164206429390025E-4</v>
+        <v>2.0109470952926686E-3</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="20"/>
-        <v>4.4942706882134892E-4</v>
+        <v>2.9961804588089927E-3</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="20"/>
-        <v>5.9681395455071806E-4</v>
+        <v>3.9787596970047873E-3</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="20"/>
-        <v>2.4791897368474133E-2</v>
+        <v>5.1649786184321103E-2</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="20"/>
-        <v>2.4762391283205357E-2</v>
+        <v>5.1588315173344494E-2</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" si="20"/>
-        <v>2.9107218406755425E-2</v>
+        <v>9.7024061355851399E-2</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" si="20"/>
-        <v>2.3080083557076867E-3</v>
+        <v>7.2125261115865199E-3</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="20"/>
-        <v>1.8439023230930815E-2</v>
+        <v>3.8414631731105861E-2</v>
       </c>
       <c r="M39" s="5">
         <f t="shared" si="20"/>
-        <v>4.4308259217590764E-3</v>
+        <v>0.14769419739196921</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="20"/>
-        <v>5.1684876759965992E-3</v>
+        <v>0.17228292253321995</v>
       </c>
       <c r="O39" s="5">
         <f t="shared" si="20"/>
-        <v>7.3814729387091651E-3</v>
+        <v>9.2268411733864561E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -12293,56 +12354,56 @@
         <v>41</v>
       </c>
       <c r="C40" s="4">
-        <f>(C$42*C$37)/($S$7*$T$21)+C$42*$S$17</f>
-        <v>2.0007597766377711E-5</v>
+        <f>(C$42*C$37)/($S$7*$T$21*C$48*C$49)+C$42*$S$17</f>
+        <v>1.3338398510918473E-4</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" ref="D40:O40" si="21">(D$42*D$37)/($S$7*$T$21)+D$42*$S$17</f>
-        <v>1.8349228127449656E-5</v>
+        <f t="shared" ref="D40:O40" si="21">(D$42*D$37)/($S$7*$T$21*D$48*D$49)+D$42*$S$17</f>
+        <v>1.2232818751633105E-4</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="21"/>
-        <v>5.6466811552602102E-6</v>
+        <v>3.7644541035068066E-5</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="21"/>
-        <v>8.4131878825252511E-6</v>
+        <v>5.6087919216835014E-5</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="21"/>
-        <v>1.1172241902821414E-5</v>
+        <v>7.4481612685476091E-5</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="21"/>
-        <v>4.6409952803303027E-4</v>
+        <v>9.6687401673547981E-4</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="21"/>
-        <v>4.6354717981845773E-4</v>
+        <v>9.6572329128845368E-4</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="21"/>
-        <v>5.4488150399119447E-4</v>
+        <v>1.8162716799706483E-3</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="21"/>
-        <v>4.3205470426895101E-5</v>
+        <v>1.3501709508404719E-4</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="21"/>
-        <v>3.4517495178674839E-4</v>
+        <v>7.1911448288905912E-4</v>
       </c>
       <c r="M40" s="4">
         <f t="shared" si="21"/>
-        <v>8.2944205057084157E-5</v>
+        <v>2.7648068352361388E-3</v>
       </c>
       <c r="N40" s="4">
         <f t="shared" si="21"/>
-        <v>9.6753090553076431E-5</v>
+        <v>3.2251030184358813E-3</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="21"/>
-        <v>1.3817974704105322E-4</v>
+        <v>1.7272468380131651E-3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -12352,55 +12413,55 @@
       </c>
       <c r="C41" s="5">
         <f>(C$40*$S$16)+C$40</f>
-        <v>2.3008737431334368E-5</v>
+        <v>1.5339158287556244E-4</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" ref="D41:O41" si="22">(D$40*$S$16)+D$40</f>
-        <v>2.1101612346567106E-5</v>
+        <v>1.406774156437807E-4</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="22"/>
-        <v>6.4936833285492414E-6</v>
+        <v>4.3291222190328273E-5</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="22"/>
-        <v>9.675166064904039E-6</v>
+        <v>6.4501107099360262E-5</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="22"/>
-        <v>1.2848078188244626E-5</v>
+        <v>8.5653854588297508E-5</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="22"/>
-        <v>5.337144572379848E-4</v>
+        <v>1.1119051192458019E-3</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="22"/>
-        <v>5.3307925679122641E-4</v>
+        <v>1.1105817849817218E-3</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" si="22"/>
-        <v>6.2661372958987358E-4</v>
+        <v>2.0887124319662457E-3</v>
       </c>
       <c r="K41" s="5">
         <f t="shared" si="22"/>
-        <v>4.9686290990929369E-5</v>
+        <v>1.5526965934665427E-4</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" si="22"/>
-        <v>3.9695119455476064E-4</v>
+        <v>8.2698165532241793E-4</v>
       </c>
       <c r="M41" s="5">
         <f t="shared" si="22"/>
-        <v>9.5385835815646778E-5</v>
+        <v>3.1795278605215595E-3</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" si="22"/>
-        <v>1.112660541360379E-4</v>
+        <v>3.7088684712012635E-3</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" si="22"/>
-        <v>1.5890670909721121E-4</v>
+        <v>1.9863338637151401E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -12698,12 +12759,48 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="C49" t="s">
-        <v>45</v>
+      <c r="C49">
+        <v>0.3</v>
+      </c>
+      <c r="D49">
+        <v>0.3</v>
+      </c>
+      <c r="E49">
+        <v>0.3</v>
+      </c>
+      <c r="F49">
+        <v>0.3</v>
+      </c>
+      <c r="G49">
+        <v>0.3</v>
+      </c>
+      <c r="H49">
+        <v>0.6</v>
+      </c>
+      <c r="I49">
+        <v>0.6</v>
+      </c>
+      <c r="J49">
+        <v>0.4</v>
+      </c>
+      <c r="K49">
+        <v>0.4</v>
+      </c>
+      <c r="L49">
+        <v>0.6</v>
+      </c>
+      <c r="M49">
+        <v>0.1</v>
+      </c>
+      <c r="N49">
+        <v>0.1</v>
+      </c>
+      <c r="O49">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
